--- a/data/processed/servicios_cult_soc_dep_rec_issste2025.xlsx
+++ b/data/processed/servicios_cult_soc_dep_rec_issste2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5A67D9-C795-42E6-95E2-155F22494A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9E82C9-89FB-479C-87EE-CE481BFE43D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="60">
   <si>
     <t>Aguascalientes</t>
   </si>
   <si>
     <t>Baja California</t>
-  </si>
-  <si>
-    <t>Baja California Sur</t>
   </si>
   <si>
     <t>Campeche</t>
@@ -61,19 +58,10 @@
     <t>Jalisco</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Michoacan</t>
-  </si>
-  <si>
     <t>Morelos</t>
   </si>
   <si>
     <t>Nayarit</t>
-  </si>
-  <si>
-    <t>Nuevo Leon</t>
   </si>
   <si>
     <t>Oaxaca</t>
@@ -82,13 +70,7 @@
     <t>Puebla</t>
   </si>
   <si>
-    <t>Queretaro</t>
-  </si>
-  <si>
     <t>Quintana Roo</t>
-  </si>
-  <si>
-    <t>San Luis Potosi</t>
   </si>
   <si>
     <t>Sinaloa</t>
@@ -109,22 +91,7 @@
     <t>Veracruz</t>
   </si>
   <si>
-    <t>Yucatan</t>
-  </si>
-  <si>
     <t>Zacatecas</t>
-  </si>
-  <si>
-    <t>Subdeleg.Norte</t>
-  </si>
-  <si>
-    <t>Subdeleg. Sur</t>
-  </si>
-  <si>
-    <t>Subdeleg. Oriente</t>
-  </si>
-  <si>
-    <t>Subdeleg. Poniente</t>
   </si>
   <si>
     <t>Oficinas Centrales</t>
@@ -134,12 +101,6 @@
   </si>
   <si>
     <t>Issstehuixtla</t>
-  </si>
-  <si>
-    <t>Baja Calif. Norte</t>
-  </si>
-  <si>
-    <t>Baja Calif. Sur</t>
   </si>
   <si>
     <t>Regional Norte</t>
@@ -161,21 +122,6 @@
   </si>
   <si>
     <t>Baja California. Sur</t>
-  </si>
-  <si>
-    <t>Delegacion Norte</t>
-  </si>
-  <si>
-    <t>Delegacion Sur</t>
-  </si>
-  <si>
-    <t>Delegacion Oriente</t>
-  </si>
-  <si>
-    <t>Delegacion Poniente</t>
-  </si>
-  <si>
-    <t>ÃÂ¿Â½Reas Centrales</t>
   </si>
   <si>
     <t>Año</t>
@@ -209,6 +155,51 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Áreas Centrales</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Michoacán</t>
+  </si>
+  <si>
+    <t>Nuevo León</t>
+  </si>
+  <si>
+    <t>Querétaro</t>
+  </si>
+  <si>
+    <t>San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Yucatán</t>
+  </si>
+  <si>
+    <t>Delegación Norte</t>
+  </si>
+  <si>
+    <t>Delegación Sur</t>
+  </si>
+  <si>
+    <t>Delegación Oriente</t>
+  </si>
+  <si>
+    <t>Delegación Poniente</t>
+  </si>
+  <si>
+    <t>Subdelegación. Norte</t>
+  </si>
+  <si>
+    <t>Subdelegación. Sur</t>
+  </si>
+  <si>
+    <t>Subdelegación. Oriente</t>
+  </si>
+  <si>
+    <t>Subdelegación. Poniente</t>
   </si>
 </sst>
 </file>
@@ -741,27 +732,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -809,17 +780,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01004CAF-B0EE-4A4F-99F5-2C4E7F69B1DF}" name="Tabla1" displayName="Tabla1" ref="A1:K495" totalsRowShown="0">
   <autoFilter ref="A1:K495" xr:uid="{01004CAF-B0EE-4A4F-99F5-2C4E7F69B1DF}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E00903E2-5B95-4A2E-B89D-5B0052D7F544}" name="Año" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{E00903E2-5B95-4A2E-B89D-5B0052D7F544}" name="Año" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{6015B546-CCE8-49F7-AD82-A56721BEB06D}" name="Oficina Representación"/>
-    <tableColumn id="3" xr3:uid="{6C24FA5D-647C-4DF8-A6EA-66A6E6528CE5}" name="Serv. Culturales Derecho Hab Publ" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{5625FA80-061B-464D-B123-C974C04DA294}" name="Serv. Deportivos Derecho Hab Publ" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{24DE0E05-24AF-4FCC-9633-B84A75B97D9A}" name="Serv. Sociales Derecho Hab Publ" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{2AC1C74A-7627-48C3-AC0B-15FBB8351EE0}" name="Serv. Funerarios Derecho Hab Publ" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{3E1E2BD6-8333-4561-B9F1-248EFBB7920E}" name="Serv. Sociales Pensionados Jubl" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{2AC1B96B-1C99-43AF-AFED-47F1F4C408FD}" name="Fome Deportivo Pensionados Jubl" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{E70B6682-15CA-4E92-BD60-818587E36A59}" name="Serv. Culturales Pensionados Jubl" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{08067B72-2814-4712-B380-BB03A667992C}" name="Soci Comedores Pensionados Jubl" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{230A8DA6-C4FF-44BE-9A39-A60006ECF43E}" name="Fecha" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6C24FA5D-647C-4DF8-A6EA-66A6E6528CE5}" name="Serv. Culturales Derecho Hab Publ" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{5625FA80-061B-464D-B123-C974C04DA294}" name="Serv. Deportivos Derecho Hab Publ" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{24DE0E05-24AF-4FCC-9633-B84A75B97D9A}" name="Serv. Sociales Derecho Hab Publ" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2AC1C74A-7627-48C3-AC0B-15FBB8351EE0}" name="Serv. Funerarios Derecho Hab Publ" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{3E1E2BD6-8333-4561-B9F1-248EFBB7920E}" name="Serv. Sociales Pensionados Jubl" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{2AC1B96B-1C99-43AF-AFED-47F1F4C408FD}" name="Fome Deportivo Pensionados Jubl" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{E70B6682-15CA-4E92-BD60-818587E36A59}" name="Serv. Culturales Pensionados Jubl" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{08067B72-2814-4712-B380-BB03A667992C}" name="Soci Comedores Pensionados Jubl" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{230A8DA6-C4FF-44BE-9A39-A60006ECF43E}" name="Fecha" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1125,7 +1096,7 @@
   <dimension ref="A1:K495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,37 +1116,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1253,7 +1224,7 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>22917</v>
@@ -1288,7 +1259,7 @@
         <v>2013</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>85376</v>
@@ -1323,7 +1294,7 @@
         <v>2013</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>65886</v>
@@ -1358,7 +1329,7 @@
         <v>2013</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>75766</v>
@@ -1393,7 +1364,7 @@
         <v>2013</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>92979</v>
@@ -1428,7 +1399,7 @@
         <v>2013</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>39497</v>
@@ -1463,7 +1434,7 @@
         <v>2013</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>88495</v>
@@ -1498,7 +1469,7 @@
         <v>2013</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>100270</v>
@@ -1533,7 +1504,7 @@
         <v>2013</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <v>41618</v>
@@ -1568,7 +1539,7 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>111194</v>
@@ -1603,7 +1574,7 @@
         <v>2013</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>43939</v>
@@ -1638,7 +1609,7 @@
         <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2">
         <v>81763</v>
@@ -1673,7 +1644,7 @@
         <v>2013</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2">
         <v>19086</v>
@@ -1708,7 +1679,7 @@
         <v>2013</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
         <v>144600</v>
@@ -1743,7 +1714,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
         <v>88738</v>
@@ -1778,7 +1749,7 @@
         <v>2013</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
         <v>133369</v>
@@ -1813,7 +1784,7 @@
         <v>2013</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
         <v>273717</v>
@@ -1848,7 +1819,7 @@
         <v>2013</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>12395</v>
@@ -1883,7 +1854,7 @@
         <v>2013</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2">
         <v>34708</v>
@@ -1918,7 +1889,7 @@
         <v>2013</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
         <v>60073</v>
@@ -1953,7 +1924,7 @@
         <v>2013</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2">
         <v>163205</v>
@@ -1988,7 +1959,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>50637</v>
@@ -2023,7 +1994,7 @@
         <v>2013</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>65564</v>
@@ -2058,7 +2029,7 @@
         <v>2013</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
         <v>43996</v>
@@ -2093,7 +2064,7 @@
         <v>2013</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2">
         <v>12487</v>
@@ -2128,7 +2099,7 @@
         <v>2013</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
         <v>132736</v>
@@ -2163,7 +2134,7 @@
         <v>2013</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
         <v>40535</v>
@@ -2198,7 +2169,7 @@
         <v>2013</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2">
         <v>115974</v>
@@ -2233,7 +2204,7 @@
         <v>2013</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2">
         <v>116532</v>
@@ -2268,7 +2239,7 @@
         <v>2013</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2">
         <v>110241</v>
@@ -2303,7 +2274,7 @@
         <v>2013</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2">
         <v>77535</v>
@@ -2338,7 +2309,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2">
         <v>116369</v>
@@ -2373,7 +2344,7 @@
         <v>2013</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2">
         <v>117133</v>
@@ -2408,7 +2379,7 @@
         <v>2013</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2">
         <v>4458940</v>
@@ -2443,7 +2414,7 @@
         <v>2013</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -2478,7 +2449,7 @@
         <v>2013</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -2583,7 +2554,7 @@
         <v>2014</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2">
         <v>29076</v>
@@ -2618,7 +2589,7 @@
         <v>2014</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="2">
         <v>87248</v>
@@ -2653,7 +2624,7 @@
         <v>2014</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2">
         <v>49368</v>
@@ -2688,7 +2659,7 @@
         <v>2014</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2">
         <v>77475</v>
@@ -2723,7 +2694,7 @@
         <v>2014</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2">
         <v>18086</v>
@@ -2758,7 +2729,7 @@
         <v>2014</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2">
         <v>92443</v>
@@ -2793,7 +2764,7 @@
         <v>2014</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2">
         <v>62371</v>
@@ -2828,7 +2799,7 @@
         <v>2014</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2">
         <v>55334</v>
@@ -2863,7 +2834,7 @@
         <v>2014</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="2">
         <v>43644</v>
@@ -2898,7 +2869,7 @@
         <v>2014</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" s="2">
         <v>118420</v>
@@ -2933,7 +2904,7 @@
         <v>2014</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="2">
         <v>50549</v>
@@ -2968,7 +2939,7 @@
         <v>2014</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2">
         <v>244524</v>
@@ -3003,7 +2974,7 @@
         <v>2014</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C54" s="2">
         <v>116900</v>
@@ -3038,7 +3009,7 @@
         <v>2014</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2">
         <v>128923</v>
@@ -3073,7 +3044,7 @@
         <v>2014</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2">
         <v>90923</v>
@@ -3108,7 +3079,7 @@
         <v>2014</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C57" s="2">
         <v>106619</v>
@@ -3143,7 +3114,7 @@
         <v>2014</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2">
         <v>279230</v>
@@ -3178,7 +3149,7 @@
         <v>2014</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C59" s="2">
         <v>54049</v>
@@ -3213,7 +3184,7 @@
         <v>2014</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C60" s="2">
         <v>41550</v>
@@ -3248,7 +3219,7 @@
         <v>2014</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C61" s="2">
         <v>11174</v>
@@ -3283,7 +3254,7 @@
         <v>2014</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C62" s="2">
         <v>209668</v>
@@ -3318,7 +3289,7 @@
         <v>2014</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2">
         <v>32266</v>
@@ -3353,7 +3324,7 @@
         <v>2014</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2">
         <v>68395</v>
@@ -3388,7 +3359,7 @@
         <v>2014</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C65" s="2">
         <v>56276</v>
@@ -3423,7 +3394,7 @@
         <v>2014</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C66" s="2">
         <v>21459</v>
@@ -3458,7 +3429,7 @@
         <v>2014</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C67" s="2">
         <v>108344</v>
@@ -3493,7 +3464,7 @@
         <v>2014</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2">
         <v>57523</v>
@@ -3528,7 +3499,7 @@
         <v>2014</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2">
         <v>136792</v>
@@ -3563,7 +3534,7 @@
         <v>2014</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C70" s="2">
         <v>120190</v>
@@ -3598,7 +3569,7 @@
         <v>2014</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2">
         <v>101457</v>
@@ -3633,7 +3604,7 @@
         <v>2014</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2">
         <v>88242</v>
@@ -3668,7 +3639,7 @@
         <v>2014</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2">
         <v>91827</v>
@@ -3703,7 +3674,7 @@
         <v>2014</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2">
         <v>154188</v>
@@ -3738,7 +3709,7 @@
         <v>2014</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2">
         <v>2893725</v>
@@ -3773,7 +3744,7 @@
         <v>2014</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -3808,7 +3779,7 @@
         <v>2014</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -3913,7 +3884,7 @@
         <v>2015</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C80" s="2">
         <v>25967</v>
@@ -3948,7 +3919,7 @@
         <v>2015</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" s="2">
         <v>74323</v>
@@ -3983,7 +3954,7 @@
         <v>2015</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="2">
         <v>59386</v>
@@ -4018,7 +3989,7 @@
         <v>2015</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" s="2">
         <v>69174</v>
@@ -4053,7 +4024,7 @@
         <v>2015</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" s="2">
         <v>36710</v>
@@ -4088,7 +4059,7 @@
         <v>2015</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" s="2">
         <v>77265</v>
@@ -4123,7 +4094,7 @@
         <v>2015</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2">
         <v>83066</v>
@@ -4158,7 +4129,7 @@
         <v>2015</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" s="2">
         <v>33575</v>
@@ -4193,7 +4164,7 @@
         <v>2015</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" s="2">
         <v>39556</v>
@@ -4228,7 +4199,7 @@
         <v>2015</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" s="2">
         <v>106996</v>
@@ -4263,7 +4234,7 @@
         <v>2015</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" s="2">
         <v>48617</v>
@@ -4298,7 +4269,7 @@
         <v>2015</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C91" s="2">
         <v>243748</v>
@@ -4333,7 +4304,7 @@
         <v>2015</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2">
         <v>67161</v>
@@ -4368,7 +4339,7 @@
         <v>2015</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C93" s="2">
         <v>117939</v>
@@ -4403,7 +4374,7 @@
         <v>2015</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C94" s="2">
         <v>86309</v>
@@ -4438,7 +4409,7 @@
         <v>2015</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2">
         <v>114666</v>
@@ -4473,7 +4444,7 @@
         <v>2015</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C96" s="2">
         <v>279410</v>
@@ -4508,7 +4479,7 @@
         <v>2015</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C97" s="2">
         <v>74815</v>
@@ -4543,7 +4514,7 @@
         <v>2015</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C98" s="2">
         <v>38881</v>
@@ -4578,7 +4549,7 @@
         <v>2015</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C99" s="2">
         <v>13941</v>
@@ -4613,7 +4584,7 @@
         <v>2015</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C100" s="2">
         <v>234704</v>
@@ -4648,7 +4619,7 @@
         <v>2015</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C101" s="2">
         <v>47451</v>
@@ -4683,7 +4654,7 @@
         <v>2015</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C102" s="2">
         <v>61553</v>
@@ -4718,7 +4689,7 @@
         <v>2015</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C103" s="2">
         <v>63340</v>
@@ -4753,7 +4724,7 @@
         <v>2015</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C104" s="2">
         <v>32266</v>
@@ -4788,7 +4759,7 @@
         <v>2015</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C105" s="2">
         <v>113562</v>
@@ -4823,7 +4794,7 @@
         <v>2015</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C106" s="2">
         <v>59809</v>
@@ -4858,7 +4829,7 @@
         <v>2015</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2">
         <v>137489</v>
@@ -4893,7 +4864,7 @@
         <v>2015</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C108" s="2">
         <v>119575</v>
@@ -4928,7 +4899,7 @@
         <v>2015</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C109" s="2">
         <v>91117</v>
@@ -4963,7 +4934,7 @@
         <v>2015</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2">
         <v>187915</v>
@@ -4998,7 +4969,7 @@
         <v>2015</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2">
         <v>67770</v>
@@ -5033,7 +5004,7 @@
         <v>2015</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C112" s="2">
         <v>113765</v>
@@ -5068,7 +5039,7 @@
         <v>2015</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C113" s="2">
         <v>2730808</v>
@@ -5103,7 +5074,7 @@
         <v>2015</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5138,7 +5109,7 @@
         <v>2015</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5208,7 +5179,7 @@
         <v>2016</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C117" s="2">
         <v>60463</v>
@@ -5243,7 +5214,7 @@
         <v>2016</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C118" s="2">
         <v>10646</v>
@@ -5278,7 +5249,7 @@
         <v>2016</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" s="2">
         <v>66560</v>
@@ -5313,7 +5284,7 @@
         <v>2016</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" s="2">
         <v>50498</v>
@@ -5348,7 +5319,7 @@
         <v>2016</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" s="2">
         <v>47575</v>
@@ -5383,7 +5354,7 @@
         <v>2016</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" s="2">
         <v>42348</v>
@@ -5418,7 +5389,7 @@
         <v>2016</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" s="2">
         <v>55337</v>
@@ -5453,7 +5424,7 @@
         <v>2016</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" s="2">
         <v>54284</v>
@@ -5488,7 +5459,7 @@
         <v>2016</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C125" s="2">
         <v>39484</v>
@@ -5523,7 +5494,7 @@
         <v>2016</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C126" s="2">
         <v>24074</v>
@@ -5558,7 +5529,7 @@
         <v>2016</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C127" s="2">
         <v>81480</v>
@@ -5593,7 +5564,7 @@
         <v>2016</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" s="2">
         <v>106131</v>
@@ -5628,7 +5599,7 @@
         <v>2016</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C129" s="2">
         <v>176504</v>
@@ -5663,7 +5634,7 @@
         <v>2016</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C130" s="2">
         <v>26285</v>
@@ -5698,7 +5669,7 @@
         <v>2016</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C131" s="2">
         <v>90000</v>
@@ -5733,7 +5704,7 @@
         <v>2016</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C132" s="2">
         <v>54231</v>
@@ -5768,7 +5739,7 @@
         <v>2016</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C133" s="2">
         <v>87877</v>
@@ -5803,7 +5774,7 @@
         <v>2016</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C134" s="2">
         <v>203286</v>
@@ -5838,7 +5809,7 @@
         <v>2016</v>
       </c>
       <c r="B135" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C135" s="2">
         <v>62651</v>
@@ -5873,7 +5844,7 @@
         <v>2016</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C136" s="2">
         <v>39760</v>
@@ -5908,7 +5879,7 @@
         <v>2016</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C137" s="2">
         <v>8331</v>
@@ -5943,7 +5914,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C138" s="2">
         <v>162819</v>
@@ -5978,7 +5949,7 @@
         <v>2016</v>
       </c>
       <c r="B139" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C139" s="2">
         <v>46584</v>
@@ -6013,7 +5984,7 @@
         <v>2016</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C140" s="2">
         <v>75593</v>
@@ -6048,7 +6019,7 @@
         <v>2016</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C141" s="2">
         <v>59027</v>
@@ -6083,7 +6054,7 @@
         <v>2016</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C142" s="2">
         <v>16579</v>
@@ -6118,7 +6089,7 @@
         <v>2016</v>
       </c>
       <c r="B143" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C143" s="2">
         <v>85891</v>
@@ -6153,7 +6124,7 @@
         <v>2016</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C144" s="2">
         <v>50857</v>
@@ -6188,7 +6159,7 @@
         <v>2016</v>
       </c>
       <c r="B145" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C145" s="2">
         <v>92295</v>
@@ -6223,7 +6194,7 @@
         <v>2016</v>
       </c>
       <c r="B146" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C146" s="2">
         <v>90445</v>
@@ -6258,7 +6229,7 @@
         <v>2016</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C147" s="2">
         <v>84266</v>
@@ -6293,7 +6264,7 @@
         <v>2016</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C148" s="2">
         <v>145297</v>
@@ -6328,7 +6299,7 @@
         <v>2016</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C149" s="2">
         <v>21249</v>
@@ -6363,7 +6334,7 @@
         <v>2016</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C150" s="2">
         <v>103051</v>
@@ -6398,7 +6369,7 @@
         <v>2016</v>
       </c>
       <c r="B151" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C151" s="2">
         <v>972448</v>
@@ -6433,7 +6404,7 @@
         <v>2016</v>
       </c>
       <c r="B152" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6468,7 +6439,7 @@
         <v>2016</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6538,7 +6509,7 @@
         <v>2017</v>
       </c>
       <c r="B155" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C155" s="2">
         <v>68545</v>
@@ -6573,7 +6544,7 @@
         <v>2017</v>
       </c>
       <c r="B156" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C156" s="2">
         <v>17482</v>
@@ -6608,7 +6579,7 @@
         <v>2017</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" s="2">
         <v>76202</v>
@@ -6643,7 +6614,7 @@
         <v>2017</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158" s="2">
         <v>75566</v>
@@ -6678,7 +6649,7 @@
         <v>2017</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159" s="2">
         <v>68319</v>
@@ -6713,7 +6684,7 @@
         <v>2017</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" s="2">
         <v>80363</v>
@@ -6748,7 +6719,7 @@
         <v>2017</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" s="2">
         <v>79465</v>
@@ -6783,7 +6754,7 @@
         <v>2017</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" s="2">
         <v>89897</v>
@@ -6818,7 +6789,7 @@
         <v>2017</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C163" s="2">
         <v>45528</v>
@@ -6853,7 +6824,7 @@
         <v>2017</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C164" s="2">
         <v>37993</v>
@@ -6888,7 +6859,7 @@
         <v>2017</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C165" s="2">
         <v>121807</v>
@@ -6923,7 +6894,7 @@
         <v>2017</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C166" s="2">
         <v>109999</v>
@@ -6958,7 +6929,7 @@
         <v>2017</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C167" s="2">
         <v>236567</v>
@@ -6993,7 +6964,7 @@
         <v>2017</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C168" s="2">
         <v>67230</v>
@@ -7028,7 +6999,7 @@
         <v>2017</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C169" s="2">
         <v>81174</v>
@@ -7063,7 +7034,7 @@
         <v>2017</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C170" s="2">
         <v>46665</v>
@@ -7098,7 +7069,7 @@
         <v>2017</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C171" s="2">
         <v>108205</v>
@@ -7133,7 +7104,7 @@
         <v>2017</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C172" s="2">
         <v>278566</v>
@@ -7168,7 +7139,7 @@
         <v>2017</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C173" s="2">
         <v>82972</v>
@@ -7203,7 +7174,7 @@
         <v>2017</v>
       </c>
       <c r="B174" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C174" s="2">
         <v>51946</v>
@@ -7238,7 +7209,7 @@
         <v>2017</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C175" s="2">
         <v>35766</v>
@@ -7273,7 +7244,7 @@
         <v>2017</v>
       </c>
       <c r="B176" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C176" s="2">
         <v>184992</v>
@@ -7308,7 +7279,7 @@
         <v>2017</v>
       </c>
       <c r="B177" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C177" s="2">
         <v>67339</v>
@@ -7343,7 +7314,7 @@
         <v>2017</v>
       </c>
       <c r="B178" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C178" s="2">
         <v>100728</v>
@@ -7378,7 +7349,7 @@
         <v>2017</v>
       </c>
       <c r="B179" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C179" s="2">
         <v>101825</v>
@@ -7413,7 +7384,7 @@
         <v>2017</v>
       </c>
       <c r="B180" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C180" s="2">
         <v>22121</v>
@@ -7448,7 +7419,7 @@
         <v>2017</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C181" s="2">
         <v>95061</v>
@@ -7483,7 +7454,7 @@
         <v>2017</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C182" s="2">
         <v>70079</v>
@@ -7518,7 +7489,7 @@
         <v>2017</v>
       </c>
       <c r="B183" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C183" s="2">
         <v>107583</v>
@@ -7553,7 +7524,7 @@
         <v>2017</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C184" s="2">
         <v>121744</v>
@@ -7588,7 +7559,7 @@
         <v>2017</v>
       </c>
       <c r="B185" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C185" s="2">
         <v>145522</v>
@@ -7623,7 +7594,7 @@
         <v>2017</v>
       </c>
       <c r="B186" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C186" s="2">
         <v>85815</v>
@@ -7658,7 +7629,7 @@
         <v>2017</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C187" s="2">
         <v>34875</v>
@@ -7693,7 +7664,7 @@
         <v>2017</v>
       </c>
       <c r="B188" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C188" s="2">
         <v>151018</v>
@@ -7728,7 +7699,7 @@
         <v>2017</v>
       </c>
       <c r="B189" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C189" s="2">
         <v>1138040</v>
@@ -7763,7 +7734,7 @@
         <v>2017</v>
       </c>
       <c r="B190" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7798,7 +7769,7 @@
         <v>2017</v>
       </c>
       <c r="B191" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7868,7 +7839,7 @@
         <v>2018</v>
       </c>
       <c r="B193" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C193" s="2">
         <v>67147</v>
@@ -7903,7 +7874,7 @@
         <v>2018</v>
       </c>
       <c r="B194" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C194" s="2">
         <v>13774</v>
@@ -7938,7 +7909,7 @@
         <v>2018</v>
       </c>
       <c r="B195" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195" s="2">
         <v>57071</v>
@@ -7973,7 +7944,7 @@
         <v>2018</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" s="2">
         <v>79543</v>
@@ -8008,7 +7979,7 @@
         <v>2018</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" s="2">
         <v>67456</v>
@@ -8043,7 +8014,7 @@
         <v>2018</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" s="2">
         <v>58020</v>
@@ -8078,7 +8049,7 @@
         <v>2018</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" s="2">
         <v>54085</v>
@@ -8113,7 +8084,7 @@
         <v>2018</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" s="2">
         <v>98725</v>
@@ -8148,7 +8119,7 @@
         <v>2018</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C201" s="2">
         <v>37452</v>
@@ -8183,7 +8154,7 @@
         <v>2018</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C202" s="2">
         <v>37752</v>
@@ -8218,7 +8189,7 @@
         <v>2018</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C203" s="2">
         <v>140786</v>
@@ -8253,7 +8224,7 @@
         <v>2018</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C204" s="2">
         <v>107142</v>
@@ -8288,7 +8259,7 @@
         <v>2018</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C205" s="2">
         <v>240729</v>
@@ -8323,7 +8294,7 @@
         <v>2018</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C206" s="2">
         <v>50676</v>
@@ -8358,7 +8329,7 @@
         <v>2018</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C207" s="2">
         <v>84731</v>
@@ -8393,7 +8364,7 @@
         <v>2018</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C208" s="2">
         <v>50722</v>
@@ -8428,7 +8399,7 @@
         <v>2018</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C209" s="2">
         <v>99373</v>
@@ -8463,7 +8434,7 @@
         <v>2018</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C210" s="2">
         <v>275284</v>
@@ -8498,7 +8469,7 @@
         <v>2018</v>
       </c>
       <c r="B211" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C211" s="2">
         <v>81969</v>
@@ -8533,7 +8504,7 @@
         <v>2018</v>
       </c>
       <c r="B212" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C212" s="2">
         <v>55687</v>
@@ -8568,7 +8539,7 @@
         <v>2018</v>
       </c>
       <c r="B213" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C213" s="2">
         <v>20901</v>
@@ -8603,7 +8574,7 @@
         <v>2018</v>
       </c>
       <c r="B214" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C214" s="2">
         <v>196588</v>
@@ -8638,7 +8609,7 @@
         <v>2018</v>
       </c>
       <c r="B215" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C215" s="2">
         <v>67576</v>
@@ -8673,7 +8644,7 @@
         <v>2018</v>
       </c>
       <c r="B216" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C216" s="2">
         <v>104609</v>
@@ -8708,7 +8679,7 @@
         <v>2018</v>
       </c>
       <c r="B217" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C217" s="2">
         <v>116693</v>
@@ -8743,7 +8714,7 @@
         <v>2018</v>
       </c>
       <c r="B218" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C218" s="2">
         <v>23349</v>
@@ -8778,7 +8749,7 @@
         <v>2018</v>
       </c>
       <c r="B219" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C219" s="2">
         <v>99287</v>
@@ -8813,7 +8784,7 @@
         <v>2018</v>
       </c>
       <c r="B220" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C220" s="2">
         <v>62324</v>
@@ -8848,7 +8819,7 @@
         <v>2018</v>
       </c>
       <c r="B221" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C221" s="2">
         <v>93107</v>
@@ -8883,7 +8854,7 @@
         <v>2018</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C222" s="2">
         <v>121960</v>
@@ -8918,7 +8889,7 @@
         <v>2018</v>
       </c>
       <c r="B223" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C223" s="2">
         <v>132860</v>
@@ -8953,7 +8924,7 @@
         <v>2018</v>
       </c>
       <c r="B224" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C224" s="2">
         <v>66922</v>
@@ -8988,7 +8959,7 @@
         <v>2018</v>
       </c>
       <c r="B225" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C225" s="2">
         <v>38482</v>
@@ -9023,7 +8994,7 @@
         <v>2018</v>
       </c>
       <c r="B226" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C226" s="2">
         <v>142850</v>
@@ -9058,7 +9029,7 @@
         <v>2018</v>
       </c>
       <c r="B227" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C227" s="2">
         <v>1878886</v>
@@ -9093,7 +9064,7 @@
         <v>2018</v>
       </c>
       <c r="B228" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
@@ -9128,7 +9099,7 @@
         <v>2018</v>
       </c>
       <c r="B229" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C229" s="2">
         <v>0</v>
@@ -9198,7 +9169,7 @@
         <v>2019</v>
       </c>
       <c r="B231" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C231" s="2">
         <v>23337</v>
@@ -9233,7 +9204,7 @@
         <v>2019</v>
       </c>
       <c r="B232" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C232" s="2">
         <v>2923</v>
@@ -9268,7 +9239,7 @@
         <v>2019</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" s="2">
         <v>55339</v>
@@ -9303,7 +9274,7 @@
         <v>2019</v>
       </c>
       <c r="B234" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234" s="2">
         <v>80616</v>
@@ -9338,7 +9309,7 @@
         <v>2019</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C235" s="2">
         <v>69491</v>
@@ -9373,7 +9344,7 @@
         <v>2019</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" s="2">
         <v>68503</v>
@@ -9408,7 +9379,7 @@
         <v>2019</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" s="2">
         <v>68938</v>
@@ -9443,7 +9414,7 @@
         <v>2019</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" s="2">
         <v>100926</v>
@@ -9478,7 +9449,7 @@
         <v>2019</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C239" s="2">
         <v>56113</v>
@@ -9513,7 +9484,7 @@
         <v>2019</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C240" s="2">
         <v>41697</v>
@@ -9548,7 +9519,7 @@
         <v>2019</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C241" s="2">
         <v>130797</v>
@@ -9583,7 +9554,7 @@
         <v>2019</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C242" s="2">
         <v>86896</v>
@@ -9618,7 +9589,7 @@
         <v>2019</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C243" s="2">
         <v>205948</v>
@@ -9653,7 +9624,7 @@
         <v>2019</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C244" s="2">
         <v>159861</v>
@@ -9688,7 +9659,7 @@
         <v>2019</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C245" s="2">
         <v>79641</v>
@@ -9723,7 +9694,7 @@
         <v>2019</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C246" s="2">
         <v>72968</v>
@@ -9758,7 +9729,7 @@
         <v>2019</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C247" s="2">
         <v>98414</v>
@@ -9793,7 +9764,7 @@
         <v>2019</v>
       </c>
       <c r="B248" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C248" s="2">
         <v>277218</v>
@@ -9828,7 +9799,7 @@
         <v>2019</v>
       </c>
       <c r="B249" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C249" s="2">
         <v>84659</v>
@@ -9863,7 +9834,7 @@
         <v>2019</v>
       </c>
       <c r="B250" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C250" s="2">
         <v>34865</v>
@@ -9898,7 +9869,7 @@
         <v>2019</v>
       </c>
       <c r="B251" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C251" s="2">
         <v>20761</v>
@@ -9933,7 +9904,7 @@
         <v>2019</v>
       </c>
       <c r="B252" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C252" s="2">
         <v>204535</v>
@@ -9968,7 +9939,7 @@
         <v>2019</v>
       </c>
       <c r="B253" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C253" s="2">
         <v>66325</v>
@@ -10003,7 +9974,7 @@
         <v>2019</v>
       </c>
       <c r="B254" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C254" s="2">
         <v>69680</v>
@@ -10038,7 +10009,7 @@
         <v>2019</v>
       </c>
       <c r="B255" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C255" s="2">
         <v>92025</v>
@@ -10073,7 +10044,7 @@
         <v>2019</v>
       </c>
       <c r="B256" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C256" s="2">
         <v>24855</v>
@@ -10108,7 +10079,7 @@
         <v>2019</v>
       </c>
       <c r="B257" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C257" s="2">
         <v>35401</v>
@@ -10143,7 +10114,7 @@
         <v>2019</v>
       </c>
       <c r="B258" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C258" s="2">
         <v>55111</v>
@@ -10178,7 +10149,7 @@
         <v>2019</v>
       </c>
       <c r="B259" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C259" s="2">
         <v>64862</v>
@@ -10213,7 +10184,7 @@
         <v>2019</v>
       </c>
       <c r="B260" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C260" s="2">
         <v>123350</v>
@@ -10248,7 +10219,7 @@
         <v>2019</v>
       </c>
       <c r="B261" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C261" s="2">
         <v>127697</v>
@@ -10283,7 +10254,7 @@
         <v>2019</v>
       </c>
       <c r="B262" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C262" s="2">
         <v>119571</v>
@@ -10318,7 +10289,7 @@
         <v>2019</v>
       </c>
       <c r="B263" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C263" s="2">
         <v>25401</v>
@@ -10353,7 +10324,7 @@
         <v>2019</v>
       </c>
       <c r="B264" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C264" s="2">
         <v>141741</v>
@@ -10388,7 +10359,7 @@
         <v>2019</v>
       </c>
       <c r="B265" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C265" s="2">
         <v>997716</v>
@@ -10423,7 +10394,7 @@
         <v>2019</v>
       </c>
       <c r="B266" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C266" s="2">
         <v>0</v>
@@ -10458,7 +10429,7 @@
         <v>2019</v>
       </c>
       <c r="B267" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C267" s="2">
         <v>0</v>
@@ -10528,7 +10499,7 @@
         <v>2020</v>
       </c>
       <c r="B269" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C269" s="2">
         <v>2436</v>
@@ -10563,7 +10534,7 @@
         <v>2020</v>
       </c>
       <c r="B270" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C270" s="2">
         <v>256</v>
@@ -10598,7 +10569,7 @@
         <v>2020</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271" s="2">
         <v>23409</v>
@@ -10633,7 +10604,7 @@
         <v>2020</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C272" s="2">
         <v>12605</v>
@@ -10668,7 +10639,7 @@
         <v>2020</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C273" s="2">
         <v>0</v>
@@ -10703,7 +10674,7 @@
         <v>2020</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C274" s="2">
         <v>11790</v>
@@ -10738,7 +10709,7 @@
         <v>2020</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C275" s="2">
         <v>8471</v>
@@ -10773,7 +10744,7 @@
         <v>2020</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C276" s="2">
         <v>7777</v>
@@ -10808,7 +10779,7 @@
         <v>2020</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C277" s="2">
         <v>347</v>
@@ -10843,7 +10814,7 @@
         <v>2020</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C278" s="2">
         <v>3320</v>
@@ -10878,7 +10849,7 @@
         <v>2020</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C279" s="2">
         <v>27129</v>
@@ -10913,7 +10884,7 @@
         <v>2020</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C280" s="2">
         <v>1393</v>
@@ -10948,7 +10919,7 @@
         <v>2020</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C281" s="2">
         <v>17835</v>
@@ -10983,7 +10954,7 @@
         <v>2020</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C282" s="2">
         <v>15319</v>
@@ -11018,7 +10989,7 @@
         <v>2020</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C283" s="2">
         <v>8048</v>
@@ -11053,7 +11024,7 @@
         <v>2020</v>
       </c>
       <c r="B284" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C284" s="2">
         <v>4831</v>
@@ -11088,7 +11059,7 @@
         <v>2020</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C285" s="2">
         <v>4574</v>
@@ -11123,7 +11094,7 @@
         <v>2020</v>
       </c>
       <c r="B286" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C286" s="2">
         <v>31523</v>
@@ -11158,7 +11129,7 @@
         <v>2020</v>
       </c>
       <c r="B287" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C287" s="2">
         <v>6925</v>
@@ -11193,7 +11164,7 @@
         <v>2020</v>
       </c>
       <c r="B288" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C288" s="2">
         <v>1164</v>
@@ -11228,7 +11199,7 @@
         <v>2020</v>
       </c>
       <c r="B289" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C289" s="2">
         <v>2703</v>
@@ -11263,7 +11234,7 @@
         <v>2020</v>
       </c>
       <c r="B290" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C290" s="2">
         <v>9400</v>
@@ -11298,7 +11269,7 @@
         <v>2020</v>
       </c>
       <c r="B291" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C291" s="2">
         <v>103</v>
@@ -11333,7 +11304,7 @@
         <v>2020</v>
       </c>
       <c r="B292" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C292" s="2">
         <v>1295</v>
@@ -11368,7 +11339,7 @@
         <v>2020</v>
       </c>
       <c r="B293" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C293" s="2">
         <v>705</v>
@@ -11403,7 +11374,7 @@
         <v>2020</v>
       </c>
       <c r="B294" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C294" s="2">
         <v>3899</v>
@@ -11438,7 +11409,7 @@
         <v>2020</v>
       </c>
       <c r="B295" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C295" s="2">
         <v>10049</v>
@@ -11473,7 +11444,7 @@
         <v>2020</v>
       </c>
       <c r="B296" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C296" s="2">
         <v>7673</v>
@@ -11508,7 +11479,7 @@
         <v>2020</v>
       </c>
       <c r="B297" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C297" s="2">
         <v>10930</v>
@@ -11543,7 +11514,7 @@
         <v>2020</v>
       </c>
       <c r="B298" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C298" s="2">
         <v>12471</v>
@@ -11578,7 +11549,7 @@
         <v>2020</v>
       </c>
       <c r="B299" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C299" s="2">
         <v>16253</v>
@@ -11613,7 +11584,7 @@
         <v>2020</v>
       </c>
       <c r="B300" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C300" s="2">
         <v>11157</v>
@@ -11648,7 +11619,7 @@
         <v>2020</v>
       </c>
       <c r="B301" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C301" s="2">
         <v>158</v>
@@ -11683,7 +11654,7 @@
         <v>2020</v>
       </c>
       <c r="B302" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C302" s="2">
         <v>17236</v>
@@ -11718,7 +11689,7 @@
         <v>2020</v>
       </c>
       <c r="B303" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C303" s="2">
         <v>148392</v>
@@ -11753,7 +11724,7 @@
         <v>2020</v>
       </c>
       <c r="B304" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C304" s="2">
         <v>0</v>
@@ -11788,7 +11759,7 @@
         <v>2020</v>
       </c>
       <c r="B305" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C305" s="2">
         <v>0</v>
@@ -11858,7 +11829,7 @@
         <v>2021</v>
       </c>
       <c r="B307" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C307" s="2">
         <v>79</v>
@@ -11893,7 +11864,7 @@
         <v>2021</v>
       </c>
       <c r="B308" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C308" s="2">
         <v>9</v>
@@ -11928,7 +11899,7 @@
         <v>2021</v>
       </c>
       <c r="B309" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C309" s="2">
         <v>13</v>
@@ -11963,7 +11934,7 @@
         <v>2021</v>
       </c>
       <c r="B310" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C310" s="2">
         <v>34</v>
@@ -11998,7 +11969,7 @@
         <v>2021</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C311" s="2">
         <v>97</v>
@@ -12033,7 +12004,7 @@
         <v>2021</v>
       </c>
       <c r="B312" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C312" s="2">
         <v>254</v>
@@ -12068,7 +12039,7 @@
         <v>2021</v>
       </c>
       <c r="B313" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C313" s="2">
         <v>116</v>
@@ -12103,7 +12074,7 @@
         <v>2021</v>
       </c>
       <c r="B314" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C314" s="2">
         <v>282</v>
@@ -12138,7 +12109,7 @@
         <v>2021</v>
       </c>
       <c r="B315" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C315" s="2">
         <v>396</v>
@@ -12173,7 +12144,7 @@
         <v>2021</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C316" s="2">
         <v>139</v>
@@ -12208,7 +12179,7 @@
         <v>2021</v>
       </c>
       <c r="B317" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C317" s="2">
         <v>0</v>
@@ -12243,7 +12214,7 @@
         <v>2021</v>
       </c>
       <c r="B318" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C318" s="2">
         <v>208</v>
@@ -12278,7 +12249,7 @@
         <v>2021</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C319" s="2">
         <v>245</v>
@@ -12313,7 +12284,7 @@
         <v>2021</v>
       </c>
       <c r="B320" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C320" s="2">
         <v>830</v>
@@ -12348,7 +12319,7 @@
         <v>2021</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C321" s="2">
         <v>603</v>
@@ -12383,7 +12354,7 @@
         <v>2021</v>
       </c>
       <c r="B322" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C322" s="2">
         <v>366</v>
@@ -12418,7 +12389,7 @@
         <v>2021</v>
       </c>
       <c r="B323" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C323" s="2">
         <v>50</v>
@@ -12453,7 +12424,7 @@
         <v>2021</v>
       </c>
       <c r="B324" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C324" s="2">
         <v>269</v>
@@ -12488,7 +12459,7 @@
         <v>2021</v>
       </c>
       <c r="B325" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C325" s="2">
         <v>109</v>
@@ -12523,7 +12494,7 @@
         <v>2021</v>
       </c>
       <c r="B326" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C326" s="2">
         <v>11</v>
@@ -12558,7 +12529,7 @@
         <v>2021</v>
       </c>
       <c r="B327" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C327" s="2">
         <v>110</v>
@@ -12593,7 +12564,7 @@
         <v>2021</v>
       </c>
       <c r="B328" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C328" s="2">
         <v>145</v>
@@ -12628,7 +12599,7 @@
         <v>2021</v>
       </c>
       <c r="B329" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C329" s="2">
         <v>40</v>
@@ -12663,7 +12634,7 @@
         <v>2021</v>
       </c>
       <c r="B330" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C330" s="2">
         <v>0</v>
@@ -12698,7 +12669,7 @@
         <v>2021</v>
       </c>
       <c r="B331" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C331" s="2">
         <v>113</v>
@@ -12733,7 +12704,7 @@
         <v>2021</v>
       </c>
       <c r="B332" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C332" s="2">
         <v>19</v>
@@ -12768,7 +12739,7 @@
         <v>2021</v>
       </c>
       <c r="B333" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C333" s="2">
         <v>639</v>
@@ -12803,7 +12774,7 @@
         <v>2021</v>
       </c>
       <c r="B334" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C334" s="2">
         <v>469</v>
@@ -12838,7 +12809,7 @@
         <v>2021</v>
       </c>
       <c r="B335" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C335" s="2">
         <v>211</v>
@@ -12873,7 +12844,7 @@
         <v>2021</v>
       </c>
       <c r="B336" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C336" s="2">
         <v>90</v>
@@ -12908,7 +12879,7 @@
         <v>2021</v>
       </c>
       <c r="B337" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C337" s="2">
         <v>170</v>
@@ -12943,7 +12914,7 @@
         <v>2021</v>
       </c>
       <c r="B338" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C338" s="2">
         <v>1664</v>
@@ -12978,7 +12949,7 @@
         <v>2021</v>
       </c>
       <c r="B339" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C339" s="2">
         <v>1363</v>
@@ -13013,7 +12984,7 @@
         <v>2021</v>
       </c>
       <c r="B340" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C340" s="2">
         <v>162</v>
@@ -13048,7 +13019,7 @@
         <v>2021</v>
       </c>
       <c r="B341" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C341" s="2">
         <v>7</v>
@@ -13083,7 +13054,7 @@
         <v>2021</v>
       </c>
       <c r="B342" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C342" s="2">
         <v>0</v>
@@ -13118,7 +13089,7 @@
         <v>2021</v>
       </c>
       <c r="B343" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C343" s="2">
         <v>0</v>
@@ -13188,7 +13159,7 @@
         <v>2022</v>
       </c>
       <c r="B345" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C345" s="2">
         <v>113</v>
@@ -13223,7 +13194,7 @@
         <v>2022</v>
       </c>
       <c r="B346" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C346" s="2">
         <v>204</v>
@@ -13258,7 +13229,7 @@
         <v>2022</v>
       </c>
       <c r="B347" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C347" s="2">
         <v>42</v>
@@ -13293,7 +13264,7 @@
         <v>2022</v>
       </c>
       <c r="B348" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C348" s="2">
         <v>110</v>
@@ -13328,7 +13299,7 @@
         <v>2022</v>
       </c>
       <c r="B349" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C349" s="2">
         <v>275</v>
@@ -13363,7 +13334,7 @@
         <v>2022</v>
       </c>
       <c r="B350" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C350" s="2">
         <v>350</v>
@@ -13398,7 +13369,7 @@
         <v>2022</v>
       </c>
       <c r="B351" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C351" s="2">
         <v>177</v>
@@ -13433,7 +13404,7 @@
         <v>2022</v>
       </c>
       <c r="B352" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C352" s="2">
         <v>515</v>
@@ -13468,7 +13439,7 @@
         <v>2022</v>
       </c>
       <c r="B353" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C353" s="2">
         <v>1468</v>
@@ -13503,7 +13474,7 @@
         <v>2022</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C354" s="2">
         <v>159</v>
@@ -13538,7 +13509,7 @@
         <v>2022</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C355" s="2">
         <v>41</v>
@@ -13573,7 +13544,7 @@
         <v>2022</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C356" s="2">
         <v>415</v>
@@ -13608,7 +13579,7 @@
         <v>2022</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C357" s="2">
         <v>320</v>
@@ -13643,7 +13614,7 @@
         <v>2022</v>
       </c>
       <c r="B358" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C358" s="2">
         <v>950</v>
@@ -13678,7 +13649,7 @@
         <v>2022</v>
       </c>
       <c r="B359" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C359" s="2">
         <v>580</v>
@@ -13713,7 +13684,7 @@
         <v>2022</v>
       </c>
       <c r="B360" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C360" s="2">
         <v>168</v>
@@ -13748,7 +13719,7 @@
         <v>2022</v>
       </c>
       <c r="B361" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C361" s="2">
         <v>242</v>
@@ -13783,7 +13754,7 @@
         <v>2022</v>
       </c>
       <c r="B362" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C362" s="2">
         <v>488</v>
@@ -13818,7 +13789,7 @@
         <v>2022</v>
       </c>
       <c r="B363" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C363" s="2">
         <v>163</v>
@@ -13853,7 +13824,7 @@
         <v>2022</v>
       </c>
       <c r="B364" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C364" s="2">
         <v>201</v>
@@ -13888,7 +13859,7 @@
         <v>2022</v>
       </c>
       <c r="B365" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C365" s="2">
         <v>80</v>
@@ -13923,7 +13894,7 @@
         <v>2022</v>
       </c>
       <c r="B366" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C366" s="2">
         <v>157</v>
@@ -13958,7 +13929,7 @@
         <v>2022</v>
       </c>
       <c r="B367" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C367" s="2">
         <v>378</v>
@@ -13993,7 +13964,7 @@
         <v>2022</v>
       </c>
       <c r="B368" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C368" s="2">
         <v>46</v>
@@ -14028,7 +13999,7 @@
         <v>2022</v>
       </c>
       <c r="B369" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C369" s="2">
         <v>145</v>
@@ -14063,7 +14034,7 @@
         <v>2022</v>
       </c>
       <c r="B370" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C370" s="2">
         <v>61</v>
@@ -14098,7 +14069,7 @@
         <v>2022</v>
       </c>
       <c r="B371" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C371" s="2">
         <v>409</v>
@@ -14133,7 +14104,7 @@
         <v>2022</v>
       </c>
       <c r="B372" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C372" s="2">
         <v>546</v>
@@ -14168,7 +14139,7 @@
         <v>2022</v>
       </c>
       <c r="B373" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C373" s="2">
         <v>467</v>
@@ -14203,7 +14174,7 @@
         <v>2022</v>
       </c>
       <c r="B374" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C374" s="2">
         <v>420</v>
@@ -14238,7 +14209,7 @@
         <v>2022</v>
       </c>
       <c r="B375" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C375" s="2">
         <v>71</v>
@@ -14273,7 +14244,7 @@
         <v>2022</v>
       </c>
       <c r="B376" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C376" s="2">
         <v>3142</v>
@@ -14308,7 +14279,7 @@
         <v>2022</v>
       </c>
       <c r="B377" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C377" s="2">
         <v>884</v>
@@ -14343,7 +14314,7 @@
         <v>2022</v>
       </c>
       <c r="B378" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C378" s="2">
         <v>5</v>
@@ -14378,7 +14349,7 @@
         <v>2022</v>
       </c>
       <c r="B379" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C379" s="2">
         <v>170</v>
@@ -14413,7 +14384,7 @@
         <v>2022</v>
       </c>
       <c r="B380" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C380" s="2">
         <v>0</v>
@@ -14448,7 +14419,7 @@
         <v>2022</v>
       </c>
       <c r="B381" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C381" s="2">
         <v>0</v>
@@ -14518,7 +14489,7 @@
         <v>2023</v>
       </c>
       <c r="B383" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C383" s="2">
         <v>2</v>
@@ -14553,7 +14524,7 @@
         <v>2023</v>
       </c>
       <c r="B384" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C384" s="2">
         <v>67</v>
@@ -14588,7 +14559,7 @@
         <v>2023</v>
       </c>
       <c r="B385" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C385" s="2">
         <v>101</v>
@@ -14623,7 +14594,7 @@
         <v>2023</v>
       </c>
       <c r="B386" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C386" s="2">
         <v>179</v>
@@ -14658,7 +14629,7 @@
         <v>2023</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C387" s="2">
         <v>180</v>
@@ -14693,7 +14664,7 @@
         <v>2023</v>
       </c>
       <c r="B388" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C388" s="2">
         <v>483</v>
@@ -14728,7 +14699,7 @@
         <v>2023</v>
       </c>
       <c r="B389" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C389" s="2">
         <v>333</v>
@@ -14763,7 +14734,7 @@
         <v>2023</v>
       </c>
       <c r="B390" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C390" s="2">
         <v>460</v>
@@ -14798,7 +14769,7 @@
         <v>2023</v>
       </c>
       <c r="B391" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C391" s="2">
         <v>1934</v>
@@ -14833,7 +14804,7 @@
         <v>2023</v>
       </c>
       <c r="B392" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C392" s="2">
         <v>136</v>
@@ -14868,7 +14839,7 @@
         <v>2023</v>
       </c>
       <c r="B393" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C393" s="2">
         <v>50</v>
@@ -14903,7 +14874,7 @@
         <v>2023</v>
       </c>
       <c r="B394" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C394" s="2">
         <v>481</v>
@@ -14938,7 +14909,7 @@
         <v>2023</v>
       </c>
       <c r="B395" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C395" s="2">
         <v>240</v>
@@ -14973,7 +14944,7 @@
         <v>2023</v>
       </c>
       <c r="B396" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C396" s="2">
         <v>971</v>
@@ -15008,7 +14979,7 @@
         <v>2023</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C397" s="2">
         <v>596</v>
@@ -15043,7 +15014,7 @@
         <v>2023</v>
       </c>
       <c r="B398" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C398" s="2">
         <v>482</v>
@@ -15078,7 +15049,7 @@
         <v>2023</v>
       </c>
       <c r="B399" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C399" s="2">
         <v>160</v>
@@ -15113,7 +15084,7 @@
         <v>2023</v>
       </c>
       <c r="B400" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C400" s="2">
         <v>699</v>
@@ -15148,7 +15119,7 @@
         <v>2023</v>
       </c>
       <c r="B401" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C401" s="2">
         <v>221</v>
@@ -15183,7 +15154,7 @@
         <v>2023</v>
       </c>
       <c r="B402" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C402" s="2">
         <v>317</v>
@@ -15218,7 +15189,7 @@
         <v>2023</v>
       </c>
       <c r="B403" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C403" s="2">
         <v>75</v>
@@ -15253,7 +15224,7 @@
         <v>2023</v>
       </c>
       <c r="B404" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C404" s="2">
         <v>85</v>
@@ -15288,7 +15259,7 @@
         <v>2023</v>
       </c>
       <c r="B405" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C405" s="2">
         <v>495</v>
@@ -15323,7 +15294,7 @@
         <v>2023</v>
       </c>
       <c r="B406" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C406" s="2">
         <v>52</v>
@@ -15358,7 +15329,7 @@
         <v>2023</v>
       </c>
       <c r="B407" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C407" s="2">
         <v>17</v>
@@ -15393,7 +15364,7 @@
         <v>2023</v>
       </c>
       <c r="B408" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C408" s="2">
         <v>91</v>
@@ -15428,7 +15399,7 @@
         <v>2023</v>
       </c>
       <c r="B409" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C409" s="2">
         <v>353</v>
@@ -15463,7 +15434,7 @@
         <v>2023</v>
       </c>
       <c r="B410" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C410" s="2">
         <v>203</v>
@@ -15498,7 +15469,7 @@
         <v>2023</v>
       </c>
       <c r="B411" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C411" s="2">
         <v>570</v>
@@ -15533,7 +15504,7 @@
         <v>2023</v>
       </c>
       <c r="B412" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C412" s="2">
         <v>422</v>
@@ -15568,7 +15539,7 @@
         <v>2023</v>
       </c>
       <c r="B413" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C413" s="2">
         <v>357</v>
@@ -15603,7 +15574,7 @@
         <v>2023</v>
       </c>
       <c r="B414" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C414" s="2">
         <v>3275</v>
@@ -15638,7 +15609,7 @@
         <v>2023</v>
       </c>
       <c r="B415" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C415" s="2">
         <v>646</v>
@@ -15673,7 +15644,7 @@
         <v>2023</v>
       </c>
       <c r="B416" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C416" s="2">
         <v>9</v>
@@ -15708,7 +15679,7 @@
         <v>2023</v>
       </c>
       <c r="B417" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C417" s="2">
         <v>264</v>
@@ -15743,7 +15714,7 @@
         <v>2023</v>
       </c>
       <c r="B418" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C418" s="2">
         <v>0</v>
@@ -15778,7 +15749,7 @@
         <v>2023</v>
       </c>
       <c r="B419" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C419" s="2">
         <v>0</v>
@@ -15883,7 +15854,7 @@
         <v>2024</v>
       </c>
       <c r="B422" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C422" s="2">
         <v>192</v>
@@ -15918,7 +15889,7 @@
         <v>2024</v>
       </c>
       <c r="B423" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C423" s="2">
         <v>69</v>
@@ -15953,7 +15924,7 @@
         <v>2024</v>
       </c>
       <c r="B424" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C424" s="2">
         <v>502</v>
@@ -15988,7 +15959,7 @@
         <v>2024</v>
       </c>
       <c r="B425" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C425" s="2">
         <v>311</v>
@@ -16023,7 +15994,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C426" s="2">
         <v>170</v>
@@ -16058,7 +16029,7 @@
         <v>2024</v>
       </c>
       <c r="B427" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C427" s="2">
         <v>27</v>
@@ -16093,7 +16064,7 @@
         <v>2024</v>
       </c>
       <c r="B428" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C428" s="2">
         <v>406</v>
@@ -16128,7 +16099,7 @@
         <v>2024</v>
       </c>
       <c r="B429" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C429" s="2">
         <v>88</v>
@@ -16163,7 +16134,7 @@
         <v>2024</v>
       </c>
       <c r="B430" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C430" s="2">
         <v>94</v>
@@ -16198,7 +16169,7 @@
         <v>2024</v>
       </c>
       <c r="B431" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C431" s="2">
         <v>609</v>
@@ -16233,7 +16204,7 @@
         <v>2024</v>
       </c>
       <c r="B432" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C432" s="2">
         <v>297</v>
@@ -16268,7 +16239,7 @@
         <v>2024</v>
       </c>
       <c r="B433" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C433" s="2">
         <v>1480</v>
@@ -16303,7 +16274,7 @@
         <v>2024</v>
       </c>
       <c r="B434" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C434" s="2">
         <v>771</v>
@@ -16338,7 +16309,7 @@
         <v>2024</v>
       </c>
       <c r="B435" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C435" s="2">
         <v>238</v>
@@ -16373,7 +16344,7 @@
         <v>2024</v>
       </c>
       <c r="B436" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C436" s="2">
         <v>393</v>
@@ -16408,7 +16379,7 @@
         <v>2024</v>
       </c>
       <c r="B437" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C437" s="2">
         <v>202</v>
@@ -16443,7 +16414,7 @@
         <v>2024</v>
       </c>
       <c r="B438" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C438" s="2">
         <v>634</v>
@@ -16478,7 +16449,7 @@
         <v>2024</v>
       </c>
       <c r="B439" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C439" s="2">
         <v>260</v>
@@ -16513,7 +16484,7 @@
         <v>2024</v>
       </c>
       <c r="B440" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C440" s="2">
         <v>294</v>
@@ -16548,7 +16519,7 @@
         <v>2024</v>
       </c>
       <c r="B441" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C441" s="2">
         <v>59</v>
@@ -16583,7 +16554,7 @@
         <v>2024</v>
       </c>
       <c r="B442" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C442" s="2">
         <v>177</v>
@@ -16618,7 +16589,7 @@
         <v>2024</v>
       </c>
       <c r="B443" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C443" s="2">
         <v>787</v>
@@ -16653,7 +16624,7 @@
         <v>2024</v>
       </c>
       <c r="B444" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C444" s="2">
         <v>9</v>
@@ -16688,7 +16659,7 @@
         <v>2024</v>
       </c>
       <c r="B445" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C445" s="2">
         <v>5</v>
@@ -16723,7 +16694,7 @@
         <v>2024</v>
       </c>
       <c r="B446" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C446" s="2">
         <v>88</v>
@@ -16758,7 +16729,7 @@
         <v>2024</v>
       </c>
       <c r="B447" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C447" s="2">
         <v>266</v>
@@ -16793,7 +16764,7 @@
         <v>2024</v>
       </c>
       <c r="B448" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C448" s="2">
         <v>162</v>
@@ -16828,7 +16799,7 @@
         <v>2024</v>
       </c>
       <c r="B449" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C449" s="2">
         <v>380</v>
@@ -16863,7 +16834,7 @@
         <v>2024</v>
       </c>
       <c r="B450" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C450" s="2">
         <v>224</v>
@@ -16898,7 +16869,7 @@
         <v>2024</v>
       </c>
       <c r="B451" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C451" s="2">
         <v>3138</v>
@@ -16933,7 +16904,7 @@
         <v>2024</v>
       </c>
       <c r="B452" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C452" s="2">
         <v>117</v>
@@ -16968,7 +16939,7 @@
         <v>2024</v>
       </c>
       <c r="B453" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C453" s="2">
         <v>86</v>
@@ -17003,7 +16974,7 @@
         <v>2024</v>
       </c>
       <c r="B454" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C454" s="2">
         <v>85</v>
@@ -17038,7 +17009,7 @@
         <v>2024</v>
       </c>
       <c r="B455" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C455" s="2">
         <v>214</v>
@@ -17073,7 +17044,7 @@
         <v>2024</v>
       </c>
       <c r="B456" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C456" s="2">
         <v>0</v>
@@ -17108,7 +17079,7 @@
         <v>2024</v>
       </c>
       <c r="B457" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C457" s="2">
         <v>0</v>
@@ -17213,7 +17184,7 @@
         <v>2025</v>
       </c>
       <c r="B460" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C460" s="2">
         <v>85</v>
@@ -17248,7 +17219,7 @@
         <v>2025</v>
       </c>
       <c r="B461" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C461" s="2">
         <v>80</v>
@@ -17283,7 +17254,7 @@
         <v>2025</v>
       </c>
       <c r="B462" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C462" s="2">
         <v>89</v>
@@ -17318,7 +17289,7 @@
         <v>2025</v>
       </c>
       <c r="B463" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C463" s="2">
         <v>110</v>
@@ -17353,7 +17324,7 @@
         <v>2025</v>
       </c>
       <c r="B464" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C464" s="2">
         <v>57</v>
@@ -17388,7 +17359,7 @@
         <v>2025</v>
       </c>
       <c r="B465" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C465" s="2">
         <v>57</v>
@@ -17423,7 +17394,7 @@
         <v>2025</v>
       </c>
       <c r="B466" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C466" s="2">
         <v>137</v>
@@ -17458,7 +17429,7 @@
         <v>2025</v>
       </c>
       <c r="B467" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C467" s="2">
         <v>48</v>
@@ -17493,7 +17464,7 @@
         <v>2025</v>
       </c>
       <c r="B468" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C468" s="2">
         <v>10</v>
@@ -17528,7 +17499,7 @@
         <v>2025</v>
       </c>
       <c r="B469" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C469" s="2">
         <v>96</v>
@@ -17563,7 +17534,7 @@
         <v>2025</v>
       </c>
       <c r="B470" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C470" s="2">
         <v>59</v>
@@ -17598,7 +17569,7 @@
         <v>2025</v>
       </c>
       <c r="B471" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C471" s="2">
         <v>268</v>
@@ -17633,7 +17604,7 @@
         <v>2025</v>
       </c>
       <c r="B472" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C472" s="2">
         <v>171</v>
@@ -17668,7 +17639,7 @@
         <v>2025</v>
       </c>
       <c r="B473" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C473" s="2">
         <v>190</v>
@@ -17703,7 +17674,7 @@
         <v>2025</v>
       </c>
       <c r="B474" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C474" s="2">
         <v>264</v>
@@ -17738,7 +17709,7 @@
         <v>2025</v>
       </c>
       <c r="B475" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C475" s="2">
         <v>78</v>
@@ -17773,7 +17744,7 @@
         <v>2025</v>
       </c>
       <c r="B476" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C476" s="2">
         <v>153</v>
@@ -17808,7 +17779,7 @@
         <v>2025</v>
       </c>
       <c r="B477" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C477" s="2">
         <v>108</v>
@@ -17843,7 +17814,7 @@
         <v>2025</v>
       </c>
       <c r="B478" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C478" s="2">
         <v>33</v>
@@ -17878,7 +17849,7 @@
         <v>2025</v>
       </c>
       <c r="B479" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C479" s="2">
         <v>39</v>
@@ -17913,7 +17884,7 @@
         <v>2025</v>
       </c>
       <c r="B480" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C480" s="2">
         <v>93</v>
@@ -17948,7 +17919,7 @@
         <v>2025</v>
       </c>
       <c r="B481" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C481" s="2">
         <v>0</v>
@@ -17983,7 +17954,7 @@
         <v>2025</v>
       </c>
       <c r="B482" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C482" s="2">
         <v>14</v>
@@ -18018,7 +17989,7 @@
         <v>2025</v>
       </c>
       <c r="B483" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C483" s="2">
         <v>28</v>
@@ -18053,7 +18024,7 @@
         <v>2025</v>
       </c>
       <c r="B484" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C484" s="2">
         <v>57</v>
@@ -18088,7 +18059,7 @@
         <v>2025</v>
       </c>
       <c r="B485" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C485" s="2">
         <v>84</v>
@@ -18123,7 +18094,7 @@
         <v>2025</v>
       </c>
       <c r="B486" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C486" s="2">
         <v>106</v>
@@ -18158,7 +18129,7 @@
         <v>2025</v>
       </c>
       <c r="B487" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C487" s="2">
         <v>27</v>
@@ -18193,7 +18164,7 @@
         <v>2025</v>
       </c>
       <c r="B488" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C488" s="2">
         <v>51</v>
@@ -18228,7 +18199,7 @@
         <v>2025</v>
       </c>
       <c r="B489" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C489" s="2">
         <v>1252</v>
@@ -18263,7 +18234,7 @@
         <v>2025</v>
       </c>
       <c r="B490" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C490" s="2">
         <v>722</v>
@@ -18298,7 +18269,7 @@
         <v>2025</v>
       </c>
       <c r="B491" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C491" s="2">
         <v>127</v>
@@ -18333,7 +18304,7 @@
         <v>2025</v>
       </c>
       <c r="B492" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C492" s="2">
         <v>59</v>
@@ -18368,7 +18339,7 @@
         <v>2025</v>
       </c>
       <c r="B493" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C493" s="2">
         <v>29</v>
@@ -18403,7 +18374,7 @@
         <v>2025</v>
       </c>
       <c r="B494" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C494" s="2">
         <v>0</v>
@@ -18438,7 +18409,7 @@
         <v>2025</v>
       </c>
       <c r="B495" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C495" s="2">
         <v>0</v>

--- a/data/processed/servicios_cult_soc_dep_rec_issste2025.xlsx
+++ b/data/processed/servicios_cult_soc_dep_rec_issste2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7BBC6-4E14-467B-B2FA-161BA24971B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0E1F07-7A2F-405D-A314-7A5E721BDE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="3" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
@@ -208,13 +208,7 @@
     <t>Subdelegación. Poniente</t>
   </si>
   <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
     <t>Total general</t>
-  </si>
-  <si>
-    <t>Etiquetas de columna</t>
   </si>
   <si>
     <t>Suma de Serv. Deportivos Derecho Hab Publ</t>
@@ -244,7 +238,13 @@
     <t>Suma de todos los Servicios</t>
   </si>
   <si>
-    <t>Suma de Suma de todos los Servicios</t>
+    <t>Años</t>
+  </si>
+  <si>
+    <t>Nombre Oficina Representación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma de todos los Servicios </t>
   </si>
 </sst>
 </file>
@@ -10012,7 +10012,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
   <location ref="A4:AY19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -10316,7 +10316,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A4:I54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
@@ -10592,7 +10592,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A7:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
@@ -12988,7 +12988,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Suma de Suma de todos los Servicios" fld="11" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Suma de todos los Servicios " fld="11" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -13328,7 +13328,7 @@
   <dimension ref="A1:L495"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13382,7 +13382,7 @@
         <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -32664,13 +32664,13 @@
   <dimension ref="A4:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
@@ -32724,15 +32724,15 @@
   <sheetData>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -32882,7 +32882,7 @@
         <v>23</v>
       </c>
       <c r="AY5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
@@ -34616,7 +34616,7 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2">
         <v>160650</v>
@@ -34779,12 +34779,12 @@
   <dimension ref="A4:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
@@ -34797,31 +34797,31 @@
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -36247,7 +36247,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2">
         <v>36375442</v>
@@ -36284,7 +36284,7 @@
   <dimension ref="A7:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36738,7 +36738,7 @@
   <sheetData>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -37138,7 +37138,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
         <v>56915689</v>

--- a/data/processed/servicios_cult_soc_dep_rec_issste2025.xlsx
+++ b/data/processed/servicios_cult_soc_dep_rec_issste2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74325626-E7D8-4E13-8E26-198EDA0E4FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B523317-1FBD-4044-A369-2038992E9116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="3" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="1" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
   <sheets>
     <sheet name="servicios_cult_soc_dep_rec_isss" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="79">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -246,12 +246,30 @@
   <si>
     <t xml:space="preserve">Suma de todos los Servicios </t>
   </si>
+  <si>
+    <t>Servicios deportivos por año</t>
+  </si>
+  <si>
+    <t>Servicios deportivos a lo largo de los años</t>
+  </si>
+  <si>
+    <t>Comparación entre cultura vs. Deportes vs sociales</t>
+  </si>
+  <si>
+    <t>Comparación clave entre categorías</t>
+  </si>
+  <si>
+    <t>Ranking de delegaciones</t>
+  </si>
+  <si>
+    <t>Top 10 delegaciones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,8 +404,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +592,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -728,7 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -738,6 +769,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4393,6 +4427,72 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -4404,7 +4504,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$B$4:$B$5</c:f>
+              <c:f>'Servios deportivos por año'!$B$6:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4439,7 +4539,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -4486,7 +4586,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$B$6:$B$19</c:f>
+              <c:f>'Servios deportivos por año'!$B$8:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4544,7 +4644,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$C$4:$C$5</c:f>
+              <c:f>'Servios deportivos por año'!$C$6:$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4579,7 +4679,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -4626,7 +4726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$C$6:$C$19</c:f>
+              <c:f>'Servios deportivos por año'!$C$8:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4639,7 +4739,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000049-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4648,7 +4748,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$D$4:$D$5</c:f>
+              <c:f>'Servios deportivos por año'!$D$6:$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4683,7 +4783,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -4730,7 +4830,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$D$6:$D$19</c:f>
+              <c:f>'Servios deportivos por año'!$D$8:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4755,7 +4855,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000004A-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4764,7 +4864,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$E$4:$E$5</c:f>
+              <c:f>'Servios deportivos por año'!$E$6:$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4799,7 +4899,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -4846,7 +4946,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$E$6:$E$19</c:f>
+              <c:f>'Servios deportivos por año'!$E$8:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4880,7 +4980,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000004B-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4889,7 +4989,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$F$4:$F$5</c:f>
+              <c:f>'Servios deportivos por año'!$F$6:$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4924,7 +5024,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -4971,7 +5071,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$F$6:$F$19</c:f>
+              <c:f>'Servios deportivos por año'!$F$8:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5020,7 +5120,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000004C-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5029,7 +5129,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$G$4:$G$5</c:f>
+              <c:f>'Servios deportivos por año'!$G$6:$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5064,7 +5164,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -5111,7 +5211,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$G$6:$G$19</c:f>
+              <c:f>'Servios deportivos por año'!$G$8:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5160,7 +5260,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000004D-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5169,7 +5269,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$H$4:$H$5</c:f>
+              <c:f>'Servios deportivos por año'!$H$6:$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5210,7 +5310,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -5257,7 +5357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$H$6:$H$19</c:f>
+              <c:f>'Servios deportivos por año'!$H$8:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5306,7 +5406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000004E-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5315,7 +5415,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$I$4:$I$5</c:f>
+              <c:f>'Servios deportivos por año'!$I$6:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5356,7 +5456,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -5403,7 +5503,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$I$6:$I$19</c:f>
+              <c:f>'Servios deportivos por año'!$I$8:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5452,7 +5552,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000004F-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5461,7 +5561,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$J$4:$J$5</c:f>
+              <c:f>'Servios deportivos por año'!$J$6:$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5502,7 +5602,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -5549,7 +5649,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$J$6:$J$19</c:f>
+              <c:f>'Servios deportivos por año'!$J$8:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5598,7 +5698,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000050-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5607,7 +5707,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$K$4:$K$5</c:f>
+              <c:f>'Servios deportivos por año'!$K$6:$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5648,7 +5748,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -5695,7 +5795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$K$6:$K$19</c:f>
+              <c:f>'Servios deportivos por año'!$K$8:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5744,7 +5844,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000051-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5753,7 +5853,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$L$4:$L$5</c:f>
+              <c:f>'Servios deportivos por año'!$L$6:$L$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5794,7 +5894,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -5841,7 +5941,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$L$6:$L$19</c:f>
+              <c:f>'Servios deportivos por año'!$L$8:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5875,7 +5975,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000052-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5884,7 +5984,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$M$4:$M$5</c:f>
+              <c:f>'Servios deportivos por año'!$M$6:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5925,7 +6025,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -5972,7 +6072,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$M$6:$M$19</c:f>
+              <c:f>'Servios deportivos por año'!$M$8:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5997,7 +6097,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000053-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6006,7 +6106,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$N$4:$N$5</c:f>
+              <c:f>'Servios deportivos por año'!$N$6:$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6050,7 +6150,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -6097,7 +6197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$N$6:$N$19</c:f>
+              <c:f>'Servios deportivos por año'!$N$8:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6128,7 +6228,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000054-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6137,7 +6237,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$O$4:$O$5</c:f>
+              <c:f>'Servios deportivos por año'!$O$6:$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6181,7 +6281,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -6228,7 +6328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$O$6:$O$19</c:f>
+              <c:f>'Servios deportivos por año'!$O$8:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6259,7 +6359,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000055-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6268,7 +6368,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$P$4:$P$5</c:f>
+              <c:f>'Servios deportivos por año'!$P$6:$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6312,7 +6412,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -6359,7 +6459,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$P$6:$P$19</c:f>
+              <c:f>'Servios deportivos por año'!$P$8:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6390,7 +6490,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000056-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6399,7 +6499,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$Q$4:$Q$5</c:f>
+              <c:f>'Servios deportivos por año'!$Q$6:$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6443,7 +6543,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -6490,7 +6590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$Q$6:$Q$19</c:f>
+              <c:f>'Servios deportivos por año'!$Q$8:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6521,7 +6621,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000057-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6530,7 +6630,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$R$4:$R$5</c:f>
+              <c:f>'Servios deportivos por año'!$R$6:$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6574,7 +6674,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -6621,7 +6721,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$R$6:$R$19</c:f>
+              <c:f>'Servios deportivos por año'!$R$8:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6670,7 +6770,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000058-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6679,7 +6779,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$S$4:$S$5</c:f>
+              <c:f>'Servios deportivos por año'!$S$6:$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6723,7 +6823,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -6770,7 +6870,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$S$6:$S$19</c:f>
+              <c:f>'Servios deportivos por año'!$S$8:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6819,7 +6919,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000059-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6828,7 +6928,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$T$4:$T$5</c:f>
+              <c:f>'Servios deportivos por año'!$T$6:$T$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6869,7 +6969,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -6916,7 +7016,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$T$6:$T$19</c:f>
+              <c:f>'Servios deportivos por año'!$T$8:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6965,7 +7065,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000005A-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6974,7 +7074,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$U$4:$U$5</c:f>
+              <c:f>'Servios deportivos por año'!$U$6:$U$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7015,7 +7115,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -7062,7 +7162,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$U$6:$U$19</c:f>
+              <c:f>'Servios deportivos por año'!$U$8:$U$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7111,7 +7211,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000005B-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7120,7 +7220,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$V$4:$V$5</c:f>
+              <c:f>'Servios deportivos por año'!$V$6:$V$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7161,7 +7261,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -7208,7 +7308,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$V$6:$V$19</c:f>
+              <c:f>'Servios deportivos por año'!$V$8:$V$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7257,7 +7357,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000005C-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7266,7 +7366,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$W$4:$W$5</c:f>
+              <c:f>'Servios deportivos por año'!$W$6:$W$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7307,7 +7407,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -7354,7 +7454,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$W$6:$W$19</c:f>
+              <c:f>'Servios deportivos por año'!$W$8:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7403,7 +7503,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000005D-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7412,7 +7512,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$X$4:$X$5</c:f>
+              <c:f>'Servios deportivos por año'!$X$6:$X$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7453,7 +7553,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -7500,7 +7600,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$X$6:$X$19</c:f>
+              <c:f>'Servios deportivos por año'!$X$8:$X$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7549,7 +7649,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000005E-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7558,7 +7658,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$Y$4:$Y$5</c:f>
+              <c:f>'Servios deportivos por año'!$Y$6:$Y$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7599,7 +7699,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -7646,7 +7746,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$Y$6:$Y$19</c:f>
+              <c:f>'Servios deportivos por año'!$Y$8:$Y$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7695,7 +7795,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000005F-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7704,7 +7804,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$Z$4:$Z$5</c:f>
+              <c:f>'Servios deportivos por año'!$Z$6:$Z$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7748,7 +7848,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -7795,7 +7895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$Z$6:$Z$19</c:f>
+              <c:f>'Servios deportivos por año'!$Z$8:$Z$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7844,7 +7944,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000060-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7853,7 +7953,7 @@
           <c:order val="25"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AA$4:$AA$5</c:f>
+              <c:f>'Servios deportivos por año'!$AA$6:$AA$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7897,7 +7997,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -7944,7 +8044,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AA$6:$AA$19</c:f>
+              <c:f>'Servios deportivos por año'!$AA$8:$AA$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7993,7 +8093,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000061-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8002,7 +8102,7 @@
           <c:order val="26"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AB$4:$AB$5</c:f>
+              <c:f>'Servios deportivos por año'!$AB$6:$AB$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8046,7 +8146,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -8093,7 +8193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AB$6:$AB$19</c:f>
+              <c:f>'Servios deportivos por año'!$AB$8:$AB$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8142,7 +8242,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000062-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8151,7 +8251,7 @@
           <c:order val="27"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AC$4:$AC$5</c:f>
+              <c:f>'Servios deportivos por año'!$AC$6:$AC$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8195,7 +8295,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -8242,7 +8342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AC$6:$AC$19</c:f>
+              <c:f>'Servios deportivos por año'!$AC$8:$AC$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8291,7 +8391,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000063-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8300,7 +8400,7 @@
           <c:order val="28"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AD$4:$AD$5</c:f>
+              <c:f>'Servios deportivos por año'!$AD$6:$AD$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8344,7 +8444,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -8391,7 +8491,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AD$6:$AD$19</c:f>
+              <c:f>'Servios deportivos por año'!$AD$8:$AD$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8437,7 +8537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000064-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8446,7 +8546,7 @@
           <c:order val="29"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AE$4:$AE$5</c:f>
+              <c:f>'Servios deportivos por año'!$AE$6:$AE$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8490,7 +8590,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -8537,7 +8637,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AE$6:$AE$19</c:f>
+              <c:f>'Servios deportivos por año'!$AE$8:$AE$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8586,7 +8686,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000065-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8595,7 +8695,7 @@
           <c:order val="30"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AF$4:$AF$5</c:f>
+              <c:f>'Servios deportivos por año'!$AF$6:$AF$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8636,7 +8736,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -8683,7 +8783,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AF$6:$AF$19</c:f>
+              <c:f>'Servios deportivos por año'!$AF$8:$AF$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8732,7 +8832,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000066-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8741,7 +8841,7 @@
           <c:order val="31"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AG$4:$AG$5</c:f>
+              <c:f>'Servios deportivos por año'!$AG$6:$AG$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8782,7 +8882,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -8829,7 +8929,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AG$6:$AG$19</c:f>
+              <c:f>'Servios deportivos por año'!$AG$8:$AG$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8878,7 +8978,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000067-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8887,7 +8987,7 @@
           <c:order val="32"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AH$4:$AH$5</c:f>
+              <c:f>'Servios deportivos por año'!$AH$6:$AH$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8928,7 +9028,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -8975,7 +9075,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AH$6:$AH$19</c:f>
+              <c:f>'Servios deportivos por año'!$AH$8:$AH$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8988,7 +9088,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000068-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8997,7 +9097,7 @@
           <c:order val="33"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AI$4:$AI$5</c:f>
+              <c:f>'Servios deportivos por año'!$AI$6:$AI$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9038,7 +9138,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -9085,7 +9185,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AI$6:$AI$19</c:f>
+              <c:f>'Servios deportivos por año'!$AI$8:$AI$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -9098,7 +9198,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000069-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9107,7 +9207,7 @@
           <c:order val="34"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AJ$4:$AJ$5</c:f>
+              <c:f>'Servios deportivos por año'!$AJ$6:$AJ$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9148,7 +9248,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -9195,7 +9295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AJ$6:$AJ$19</c:f>
+              <c:f>'Servios deportivos por año'!$AJ$8:$AJ$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -9208,7 +9308,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000006A-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9217,7 +9317,7 @@
           <c:order val="35"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AK$4:$AK$5</c:f>
+              <c:f>'Servios deportivos por año'!$AK$6:$AK$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9258,7 +9358,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -9305,7 +9405,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AK$6:$AK$19</c:f>
+              <c:f>'Servios deportivos por año'!$AK$8:$AK$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -9318,7 +9418,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000006B-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9327,7 +9427,7 @@
           <c:order val="36"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AL$4:$AL$5</c:f>
+              <c:f>'Servios deportivos por año'!$AL$6:$AL$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9371,7 +9471,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -9418,7 +9518,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AL$6:$AL$19</c:f>
+              <c:f>'Servios deportivos por año'!$AL$8:$AL$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -9467,7 +9567,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000006C-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9476,7 +9576,7 @@
           <c:order val="37"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AM$4:$AM$5</c:f>
+              <c:f>'Servios deportivos por año'!$AM$6:$AM$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9520,7 +9620,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -9567,7 +9667,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AM$6:$AM$19</c:f>
+              <c:f>'Servios deportivos por año'!$AM$8:$AM$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -9616,7 +9716,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000032-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000006D-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9625,7 +9725,7 @@
           <c:order val="38"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AN$4:$AN$5</c:f>
+              <c:f>'Servios deportivos por año'!$AN$6:$AN$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9669,7 +9769,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -9716,7 +9816,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AN$6:$AN$19</c:f>
+              <c:f>'Servios deportivos por año'!$AN$8:$AN$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -9765,7 +9865,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000033-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000006E-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9774,7 +9874,7 @@
           <c:order val="39"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AO$4:$AO$5</c:f>
+              <c:f>'Servios deportivos por año'!$AO$6:$AO$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9818,7 +9918,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -9865,7 +9965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AO$6:$AO$19</c:f>
+              <c:f>'Servios deportivos por año'!$AO$8:$AO$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -9890,7 +9990,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000034-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{0000006F-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9899,7 +9999,7 @@
           <c:order val="40"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AP$4:$AP$5</c:f>
+              <c:f>'Servios deportivos por año'!$AP$6:$AP$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9943,7 +10043,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -9990,7 +10090,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AP$6:$AP$19</c:f>
+              <c:f>'Servios deportivos por año'!$AP$8:$AP$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -10015,7 +10115,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000035-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000070-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10024,7 +10124,7 @@
           <c:order val="41"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AQ$4:$AQ$5</c:f>
+              <c:f>'Servios deportivos por año'!$AQ$6:$AQ$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10068,7 +10168,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -10115,7 +10215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AQ$6:$AQ$19</c:f>
+              <c:f>'Servios deportivos por año'!$AQ$8:$AQ$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -10140,7 +10240,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000036-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000071-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10149,7 +10249,7 @@
           <c:order val="42"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AR$4:$AR$5</c:f>
+              <c:f>'Servios deportivos por año'!$AR$6:$AR$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10190,7 +10290,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -10237,7 +10337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AR$6:$AR$19</c:f>
+              <c:f>'Servios deportivos por año'!$AR$8:$AR$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -10262,7 +10362,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000037-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000072-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10271,7 +10371,7 @@
           <c:order val="43"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AS$4:$AS$5</c:f>
+              <c:f>'Servios deportivos por año'!$AS$6:$AS$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10312,7 +10412,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -10359,7 +10459,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AS$6:$AS$19</c:f>
+              <c:f>'Servios deportivos por año'!$AS$8:$AS$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -10408,7 +10508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000038-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000073-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10417,7 +10517,7 @@
           <c:order val="44"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AT$4:$AT$5</c:f>
+              <c:f>'Servios deportivos por año'!$AT$6:$AT$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10458,7 +10558,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -10505,7 +10605,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AT$6:$AT$19</c:f>
+              <c:f>'Servios deportivos por año'!$AT$8:$AT$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -10554,7 +10654,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000039-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000074-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10563,7 +10663,7 @@
           <c:order val="45"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AU$4:$AU$5</c:f>
+              <c:f>'Servios deportivos por año'!$AU$6:$AU$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10604,7 +10704,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -10651,7 +10751,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AU$6:$AU$19</c:f>
+              <c:f>'Servios deportivos por año'!$AU$8:$AU$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -10700,7 +10800,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003A-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000075-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10709,7 +10809,7 @@
           <c:order val="46"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AV$4:$AV$5</c:f>
+              <c:f>'Servios deportivos por año'!$AV$6:$AV$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10750,7 +10850,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -10797,7 +10897,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AV$6:$AV$19</c:f>
+              <c:f>'Servios deportivos por año'!$AV$8:$AV$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -10846,7 +10946,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003B-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000076-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10855,7 +10955,7 @@
           <c:order val="47"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AW$4:$AW$5</c:f>
+              <c:f>'Servios deportivos por año'!$AW$6:$AW$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10896,7 +10996,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -10943,7 +11043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AW$6:$AW$19</c:f>
+              <c:f>'Servios deportivos por año'!$AW$8:$AW$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -10992,7 +11092,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003C-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000077-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11001,7 +11101,7 @@
           <c:order val="48"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$AX$4:$AX$5</c:f>
+              <c:f>'Servios deportivos por año'!$AX$6:$AX$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11045,7 +11145,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Servios deportivos por año'!$A$6:$A$19</c:f>
+              <c:f>'Servios deportivos por año'!$A$8:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -11092,7 +11192,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Servios deportivos por año'!$AX$6:$AX$19</c:f>
+              <c:f>'Servios deportivos por año'!$AX$8:$AX$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -11141,7 +11241,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003D-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
+              <c16:uniqueId val="{00000078-A6DB-4BA3-A8AE-41CDA87CCF42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11187,7 +11287,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11246,7 +11346,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11288,7 +11388,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11841,7 +11941,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$B$4</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11862,7 +11962,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$A$5:$A$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$A$7:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -12017,7 +12117,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$B$5:$B$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$B$7:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="49"/>
@@ -12182,7 +12282,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$C$4</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12203,7 +12303,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$A$5:$A$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$A$7:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -12358,7 +12458,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$C$5:$C$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$C$7:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="49"/>
@@ -12523,7 +12623,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$D$4</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12544,7 +12644,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$A$5:$A$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$A$7:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -12699,7 +12799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$D$5:$D$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$D$7:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="49"/>
@@ -12864,7 +12964,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$E$4</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12885,7 +12985,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$A$5:$A$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$A$7:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -13040,7 +13140,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$E$5:$E$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$E$7:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="49"/>
@@ -13205,7 +13305,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$F$4</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13226,7 +13326,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$A$5:$A$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$A$7:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -13381,7 +13481,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$F$5:$F$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$F$7:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="49"/>
@@ -13546,7 +13646,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$G$4</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13567,7 +13667,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$A$5:$A$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$A$7:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -13722,7 +13822,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$G$5:$G$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$G$7:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="49"/>
@@ -13887,7 +13987,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$H$4</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13910,7 +14010,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$A$5:$A$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$A$7:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -14065,7 +14165,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$H$5:$H$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$H$7:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="49"/>
@@ -14230,7 +14330,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$I$4</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14253,7 +14353,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$A$5:$A$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$A$7:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -14408,7 +14508,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comp entre cul vs dep vs soc'!$I$5:$I$54</c:f>
+              <c:f>'Comp entre cul vs dep vs soc'!$I$7:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="49"/>
@@ -14610,7 +14710,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -14711,7 +14811,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -14836,7 +14936,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -14863,19 +14963,33 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ranking de delegaciones'!$B$7</c:f>
+              <c:f>'Ranking de delegaciones'!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14884,16 +14998,169 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E61B-4985-B6B8-38262CCA894D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -14909,7 +15176,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -14954,7 +15221,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ranking de delegaciones'!$A$8:$A$18</c:f>
+              <c:f>'Ranking de delegaciones'!$A$10:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -14992,7 +15259,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ranking de delegaciones'!$B$8:$B$18</c:f>
+              <c:f>'Ranking de delegaciones'!$B$10:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15077,7 +15344,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15260,13 +15527,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -16818,14 +17082,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16859,14 +17123,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1554480</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16899,15 +17163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1002030</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1226820</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26116,8 +26380,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
-  <location ref="A4:AY19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
+  <location ref="A6:AX21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
       <items count="14">
@@ -26252,7 +26516,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="50">
+  <colItems count="49">
     <i>
       <x/>
     </i>
@@ -26400,14 +26664,11 @@
     <i>
       <x v="48"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Suma de Serv. Deportivos Derecho Hab Publ" fld="3" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <chartFormats count="98">
+  <chartFormats count="50">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -26996,590 +27257,11 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
+    <chartFormat chart="0" format="49" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="17"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="18"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="19"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="20"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="21"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="22"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="23"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="24"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="25"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="26"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="27"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="28"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="29"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="30"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="31" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="31"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="32"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="33" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="33"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="34"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="35" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="35"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="36" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="36"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="37" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="37"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="38"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="39" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="39"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="40" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="40"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="41" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="41"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="42" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="42"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="43" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="43"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="44" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="44"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="45" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="45"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="46" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="46"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="47" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="47"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="48" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="48"/>
           </reference>
         </references>
       </pivotArea>
@@ -27599,7 +27281,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Nombre Oficina Representación">
-  <location ref="A4:I54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A6:I56" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -27948,8 +27630,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Nombre Oficina Representación">
-  <location ref="A7:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Nombre Oficina Representación">
+  <location ref="A9:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
@@ -30230,7 +29912,7 @@
     <dataField name="Suma de todos los Servicios " fld="11" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -30239,11 +29921,14 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
+    <chartFormat chart="2" format="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="28"/>
           </reference>
         </references>
       </pivotArea>
@@ -30595,7 +30280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F449743-C6BA-4379-8C03-655115C7A180}">
   <dimension ref="A1:L495"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -49929,10 +49614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56573DCE-1102-4670-B2C5-59B84C64109B}">
-  <dimension ref="A4:AY19"/>
+  <dimension ref="A2:AX25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49990,464 +49675,202 @@
     <col min="51" max="51" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="2" spans="1:50" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J7" t="s">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L7" t="s">
         <v>31</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M7" t="s">
         <v>25</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N7" t="s">
         <v>52</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O7" t="s">
         <v>54</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P7" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q7" t="s">
         <v>53</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R7" t="s">
         <v>7</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S7" t="s">
         <v>8</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T7" t="s">
         <v>9</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U7" t="s">
         <v>10</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V7" t="s">
         <v>26</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W7" t="s">
         <v>11</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X7" t="s">
         <v>46</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y7" t="s">
         <v>47</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z7" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA7" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB7" t="s">
         <v>48</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC7" t="s">
         <v>14</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD7" t="s">
         <v>24</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE7" t="s">
         <v>15</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF7" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG7" t="s">
         <v>16</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AH7" t="s">
         <v>27</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI7" t="s">
         <v>29</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ7" t="s">
         <v>30</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK7" t="s">
         <v>28</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL7" t="s">
         <v>50</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM7" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN7" t="s">
         <v>18</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO7" t="s">
         <v>56</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AP7" t="s">
         <v>58</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ7" t="s">
         <v>59</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AR7" t="s">
         <v>57</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS7" t="s">
         <v>19</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AT7" t="s">
         <v>20</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU7" t="s">
         <v>21</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AV7" t="s">
         <v>22</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW7" t="s">
         <v>51</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX7" t="s">
         <v>23</v>
       </c>
-      <c r="AY5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>2013</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>27460</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>35382</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>27582</v>
-      </c>
-      <c r="G6" s="2">
-        <v>71675</v>
-      </c>
-      <c r="H6" s="2">
-        <v>23992</v>
-      </c>
-      <c r="I6" s="2">
-        <v>57939</v>
-      </c>
-      <c r="J6" s="2">
-        <v>92230</v>
-      </c>
-      <c r="K6" s="2">
-        <v>37125</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2">
-        <v>56697</v>
-      </c>
-      <c r="S6" s="2">
-        <v>63099</v>
-      </c>
-      <c r="T6" s="2">
-        <v>38573</v>
-      </c>
-      <c r="U6" s="2">
-        <v>79355</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>36767</v>
-      </c>
-      <c r="X6" s="2">
-        <v>22479</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>28705</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>16066</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>54785</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>33175</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>18736</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>42828</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>43956</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>47505</v>
-      </c>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2">
-        <v>67299</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>9317</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>13559</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>127344</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>67913</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>104254</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>129901</v>
-      </c>
-      <c r="AS6" s="2">
-        <v>69679</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>29228</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>25324</v>
-      </c>
-      <c r="AV6" s="2">
-        <v>58583</v>
-      </c>
-      <c r="AW6" s="2">
-        <v>68631</v>
-      </c>
-      <c r="AX6" s="2">
-        <v>88862</v>
-      </c>
-      <c r="AY6" s="2">
-        <v>1816005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="2">
-        <v>24276</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>40548</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>33897</v>
-      </c>
-      <c r="G7" s="2">
-        <v>75096</v>
-      </c>
-      <c r="H7" s="2">
-        <v>14706</v>
-      </c>
-      <c r="I7" s="2">
-        <v>73046</v>
-      </c>
-      <c r="J7" s="2">
-        <v>71020</v>
-      </c>
-      <c r="K7" s="2">
-        <v>36780</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2">
-        <v>44928</v>
-      </c>
-      <c r="S7" s="2">
-        <v>63296</v>
-      </c>
-      <c r="T7" s="2">
-        <v>39689</v>
-      </c>
-      <c r="U7" s="2">
-        <v>70442</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>40021</v>
-      </c>
-      <c r="X7" s="2">
-        <v>33134</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>36603</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>17123</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>55729</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>34983</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>28336</v>
-      </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>56161</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>40473</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>46109</v>
-      </c>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2">
-        <v>80233</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>15283</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>17727</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>125658</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>70010</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>102821</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>109103</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>76730</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>27677</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>25534</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>57413</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>73402</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>89439</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>1847426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="2">
-        <v>24096</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>41949</v>
+        <v>35382</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <v>32707</v>
+        <v>27582</v>
       </c>
       <c r="G8" s="2">
-        <v>72228</v>
+        <v>71675</v>
       </c>
       <c r="H8" s="2">
-        <v>22440</v>
+        <v>23992</v>
       </c>
       <c r="I8" s="2">
-        <v>61104</v>
+        <v>57939</v>
       </c>
       <c r="J8" s="2">
-        <v>71299</v>
+        <v>92230</v>
       </c>
       <c r="K8" s="2">
-        <v>36867</v>
+        <v>37125</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2">
@@ -50458,1586 +49881,1823 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <v>51576</v>
+        <v>56697</v>
       </c>
       <c r="S8" s="2">
-        <v>64023</v>
+        <v>63099</v>
       </c>
       <c r="T8" s="2">
-        <v>33729</v>
+        <v>38573</v>
       </c>
       <c r="U8" s="2">
-        <v>71296</v>
+        <v>79355</v>
       </c>
       <c r="V8" s="2">
         <v>0</v>
       </c>
       <c r="W8" s="2">
-        <v>40187</v>
+        <v>36767</v>
       </c>
       <c r="X8" s="2">
-        <v>33879</v>
+        <v>22479</v>
       </c>
       <c r="Y8" s="2">
-        <v>29015</v>
+        <v>28705</v>
       </c>
       <c r="Z8" s="2">
-        <v>15164</v>
+        <v>16066</v>
       </c>
       <c r="AA8" s="2">
-        <v>54848</v>
+        <v>54785</v>
       </c>
       <c r="AB8" s="2">
-        <v>34915</v>
+        <v>33175</v>
       </c>
       <c r="AC8" s="2">
-        <v>32738</v>
+        <v>18736</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
       </c>
       <c r="AE8" s="2">
-        <v>56353</v>
+        <v>42828</v>
       </c>
       <c r="AF8" s="2">
-        <v>48376</v>
+        <v>43956</v>
       </c>
       <c r="AG8" s="2">
-        <v>26925</v>
+        <v>47505</v>
       </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <v>83159</v>
+        <v>67299</v>
       </c>
       <c r="AM8" s="2">
-        <v>16979</v>
+        <v>9317</v>
       </c>
       <c r="AN8" s="2">
-        <v>14915</v>
+        <v>13559</v>
       </c>
       <c r="AO8" s="2">
-        <v>105498</v>
+        <v>127344</v>
       </c>
       <c r="AP8" s="2">
-        <v>73085</v>
+        <v>67913</v>
       </c>
       <c r="AQ8" s="2">
-        <v>109969</v>
+        <v>104254</v>
       </c>
       <c r="AR8" s="2">
-        <v>110643</v>
+        <v>129901</v>
       </c>
       <c r="AS8" s="2">
-        <v>48121</v>
+        <v>69679</v>
       </c>
       <c r="AT8" s="2">
-        <v>30392</v>
+        <v>29228</v>
       </c>
       <c r="AU8" s="2">
-        <v>25819</v>
+        <v>25324</v>
       </c>
       <c r="AV8" s="2">
-        <v>47295</v>
+        <v>58583</v>
       </c>
       <c r="AW8" s="2">
-        <v>73184</v>
+        <v>68631</v>
       </c>
       <c r="AX8" s="2">
-        <v>88408</v>
-      </c>
-      <c r="AY8" s="2">
-        <v>1783181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+        <v>88862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
+        <v>24276</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40548</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>33897</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>75096</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>14706</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>73046</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>71020</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>36780</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2">
-        <v>0</v>
+        <v>44928</v>
       </c>
       <c r="S9" s="2">
-        <v>0</v>
+        <v>63296</v>
       </c>
       <c r="T9" s="2">
-        <v>0</v>
+        <v>39689</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>70442</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>0</v>
+        <v>40021</v>
       </c>
       <c r="X9" s="2">
-        <v>0</v>
+        <v>33134</v>
       </c>
       <c r="Y9" s="2">
-        <v>0</v>
+        <v>36603</v>
       </c>
       <c r="Z9" s="2">
-        <v>0</v>
+        <v>17123</v>
       </c>
       <c r="AA9" s="2">
-        <v>0</v>
+        <v>55729</v>
       </c>
       <c r="AB9" s="2">
-        <v>0</v>
+        <v>34983</v>
       </c>
       <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
+        <v>28336</v>
+      </c>
+      <c r="AD9" s="2"/>
       <c r="AE9" s="2">
-        <v>0</v>
+        <v>56161</v>
       </c>
       <c r="AF9" s="2">
-        <v>0</v>
+        <v>40473</v>
       </c>
       <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
+        <v>46109</v>
+      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
       <c r="AL9" s="2">
-        <v>0</v>
+        <v>80233</v>
       </c>
       <c r="AM9" s="2">
-        <v>0</v>
+        <v>15283</v>
       </c>
       <c r="AN9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
+        <v>17727</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>125658</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>70010</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>102821</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>109103</v>
+      </c>
       <c r="AS9" s="2">
-        <v>0</v>
+        <v>76730</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>27677</v>
       </c>
       <c r="AU9" s="2">
-        <v>0</v>
+        <v>25534</v>
       </c>
       <c r="AV9" s="2">
-        <v>0</v>
+        <v>57413</v>
       </c>
       <c r="AW9" s="2">
-        <v>0</v>
+        <v>73402</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+        <v>89439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B10" s="2">
-        <v>28418</v>
+        <v>24096</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>47250</v>
-      </c>
+      <c r="D10" s="2">
+        <v>41949</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>38154</v>
+        <v>32707</v>
       </c>
       <c r="G10" s="2">
-        <v>75016</v>
+        <v>72228</v>
       </c>
       <c r="H10" s="2">
-        <v>25670</v>
+        <v>22440</v>
       </c>
       <c r="I10" s="2">
-        <v>71098</v>
+        <v>61104</v>
       </c>
       <c r="J10" s="2">
-        <v>68053</v>
+        <v>71299</v>
       </c>
       <c r="K10" s="2">
-        <v>30959</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2">
-        <v>94954</v>
-      </c>
-      <c r="O10" s="2">
-        <v>78460</v>
-      </c>
-      <c r="P10" s="2">
-        <v>88924</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>137343</v>
-      </c>
+        <v>36867</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
       <c r="R10" s="2">
-        <v>43832</v>
+        <v>51576</v>
       </c>
       <c r="S10" s="2">
-        <v>44394</v>
+        <v>64023</v>
       </c>
       <c r="T10" s="2">
-        <v>31886</v>
+        <v>33729</v>
       </c>
       <c r="U10" s="2">
-        <v>72504</v>
+        <v>71296</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>37416</v>
+        <v>40187</v>
       </c>
       <c r="X10" s="2">
-        <v>33015</v>
+        <v>33879</v>
       </c>
       <c r="Y10" s="2">
-        <v>29210</v>
+        <v>29015</v>
       </c>
       <c r="Z10" s="2">
-        <v>14002</v>
+        <v>15164</v>
       </c>
       <c r="AA10" s="2">
-        <v>49605</v>
+        <v>54848</v>
       </c>
       <c r="AB10" s="2">
-        <v>34249</v>
+        <v>34915</v>
       </c>
       <c r="AC10" s="2">
-        <v>34747</v>
+        <v>32738</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
       </c>
       <c r="AE10" s="2">
-        <v>55731</v>
+        <v>56353</v>
       </c>
       <c r="AF10" s="2">
-        <v>38068</v>
+        <v>48376</v>
       </c>
       <c r="AG10" s="2">
-        <v>40314</v>
+        <v>26925</v>
       </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2">
-        <v>85679</v>
+        <v>83159</v>
       </c>
       <c r="AM10" s="2">
-        <v>15312</v>
+        <v>16979</v>
       </c>
       <c r="AN10" s="2">
-        <v>23999</v>
-      </c>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
+        <v>14915</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>105498</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>73085</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>109969</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>110643</v>
+      </c>
       <c r="AS10" s="2">
-        <v>32865</v>
+        <v>48121</v>
       </c>
       <c r="AT10" s="2">
-        <v>26970</v>
+        <v>30392</v>
       </c>
       <c r="AU10" s="2">
-        <v>25403</v>
+        <v>25819</v>
       </c>
       <c r="AV10" s="2">
-        <v>51068</v>
+        <v>47295</v>
       </c>
       <c r="AW10" s="2">
-        <v>74792</v>
+        <v>73184</v>
       </c>
       <c r="AX10" s="2">
-        <v>97592</v>
-      </c>
-      <c r="AY10" s="2">
-        <v>1776952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+        <v>88408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B11" s="2">
-        <v>21839</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
-        <v>40468</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>36099</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>71603</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>20673</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>70331</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>74767</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>23896</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="2">
-        <v>113114</v>
-      </c>
-      <c r="O11" s="2">
-        <v>94959</v>
-      </c>
-      <c r="P11" s="2">
-        <v>107345</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>122890</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
       <c r="R11" s="2">
-        <v>44913</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>46664</v>
+        <v>0</v>
       </c>
       <c r="T11" s="2">
-        <v>36828</v>
+        <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>72045</v>
+        <v>0</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>36706</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
-        <v>32217</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <v>17739</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <v>18619</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="2">
-        <v>56171</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="2">
-        <v>34177</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="2">
-        <v>44439</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
       </c>
       <c r="AE11" s="2">
-        <v>51792</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="2">
-        <v>39038</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="2">
-        <v>43817</v>
-      </c>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
       <c r="AL11" s="2">
-        <v>85222</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="2">
-        <v>15854</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="2">
-        <v>18956</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2">
-        <v>27354</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="2">
-        <v>26234</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>25673</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="2">
-        <v>51174</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="2">
-        <v>75352</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="2">
-        <v>94515</v>
-      </c>
-      <c r="AY11" s="2">
-        <v>1793483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B12" s="2">
-        <v>23676</v>
+        <v>28418</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>11851</v>
+        <v>47250</v>
       </c>
       <c r="F12" s="2">
-        <v>63255</v>
+        <v>38154</v>
       </c>
       <c r="G12" s="2">
-        <v>40337</v>
+        <v>75016</v>
       </c>
       <c r="H12" s="2">
-        <v>19130</v>
+        <v>25670</v>
       </c>
       <c r="I12" s="2">
-        <v>72141</v>
+        <v>71098</v>
       </c>
       <c r="J12" s="2">
-        <v>74648</v>
+        <v>68053</v>
       </c>
       <c r="K12" s="2">
-        <v>64789</v>
+        <v>30959</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <v>48880</v>
+        <v>94954</v>
       </c>
       <c r="O12" s="2">
-        <v>87897</v>
+        <v>78460</v>
       </c>
       <c r="P12" s="2">
-        <v>114647</v>
+        <v>88924</v>
       </c>
       <c r="Q12" s="2">
-        <v>161933</v>
+        <v>137343</v>
       </c>
       <c r="R12" s="2">
-        <v>46468</v>
+        <v>43832</v>
       </c>
       <c r="S12" s="2">
-        <v>39688</v>
+        <v>44394</v>
       </c>
       <c r="T12" s="2">
-        <v>38767</v>
+        <v>31886</v>
       </c>
       <c r="U12" s="2">
-        <v>72759</v>
+        <v>72504</v>
       </c>
       <c r="V12" s="2">
         <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>32765</v>
+        <v>37416</v>
       </c>
       <c r="X12" s="2">
-        <v>31890</v>
+        <v>33015</v>
       </c>
       <c r="Y12" s="2">
-        <v>33884</v>
+        <v>29210</v>
       </c>
       <c r="Z12" s="2">
-        <v>21918</v>
+        <v>14002</v>
       </c>
       <c r="AA12" s="2">
-        <v>55386</v>
+        <v>49605</v>
       </c>
       <c r="AB12" s="2">
-        <v>65121</v>
+        <v>34249</v>
       </c>
       <c r="AC12" s="2">
-        <v>34857</v>
+        <v>34747</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
       </c>
       <c r="AE12" s="2">
-        <v>47146</v>
+        <v>55731</v>
       </c>
       <c r="AF12" s="2">
-        <v>40744</v>
+        <v>38068</v>
       </c>
       <c r="AG12" s="2">
-        <v>44029</v>
+        <v>40314</v>
       </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2">
-        <v>88112</v>
+        <v>85679</v>
       </c>
       <c r="AM12" s="2">
-        <v>15752</v>
+        <v>15312</v>
       </c>
       <c r="AN12" s="2">
-        <v>16785</v>
+        <v>23999</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2">
-        <v>17653</v>
+        <v>32865</v>
       </c>
       <c r="AT12" s="2">
-        <v>26748</v>
+        <v>26970</v>
       </c>
       <c r="AU12" s="2">
-        <v>25473</v>
+        <v>25403</v>
       </c>
       <c r="AV12" s="2">
-        <v>48337</v>
+        <v>51068</v>
       </c>
       <c r="AW12" s="2">
-        <v>46989</v>
+        <v>74792</v>
       </c>
       <c r="AX12" s="2">
-        <v>92540</v>
-      </c>
-      <c r="AY12" s="2">
-        <v>1766995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+        <v>97592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B13" s="2">
-        <v>6210</v>
+        <v>21839</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>3324</v>
+        <v>40468</v>
       </c>
       <c r="F13" s="2">
-        <v>29171</v>
+        <v>36099</v>
       </c>
       <c r="G13" s="2">
-        <v>35752</v>
+        <v>71603</v>
       </c>
       <c r="H13" s="2">
-        <v>3194</v>
+        <v>20673</v>
       </c>
       <c r="I13" s="2">
-        <v>9155</v>
+        <v>70331</v>
       </c>
       <c r="J13" s="2">
-        <v>20194</v>
+        <v>74767</v>
       </c>
       <c r="K13" s="2">
-        <v>24366</v>
+        <v>23896</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2">
-        <v>28827</v>
+        <v>113114</v>
       </c>
       <c r="O13" s="2">
-        <v>26737</v>
+        <v>94959</v>
       </c>
       <c r="P13" s="2">
-        <v>25514</v>
+        <v>107345</v>
       </c>
       <c r="Q13" s="2">
-        <v>44236</v>
+        <v>122890</v>
       </c>
       <c r="R13" s="2">
-        <v>8124</v>
+        <v>44913</v>
       </c>
       <c r="S13" s="2">
-        <v>5275</v>
+        <v>46664</v>
       </c>
       <c r="T13" s="2">
-        <v>5334</v>
+        <v>36828</v>
       </c>
       <c r="U13" s="2">
-        <v>15133</v>
+        <v>72045</v>
       </c>
       <c r="V13" s="2">
         <v>0</v>
       </c>
       <c r="W13" s="2">
-        <v>28950</v>
+        <v>36706</v>
       </c>
       <c r="X13" s="2">
-        <v>26203</v>
+        <v>32217</v>
       </c>
       <c r="Y13" s="2">
-        <v>7478</v>
+        <v>17739</v>
       </c>
       <c r="Z13" s="2">
-        <v>5052</v>
+        <v>18619</v>
       </c>
       <c r="AA13" s="2">
-        <v>26895</v>
+        <v>56171</v>
       </c>
       <c r="AB13" s="2">
-        <v>13057</v>
+        <v>34177</v>
       </c>
       <c r="AC13" s="2">
-        <v>5186</v>
+        <v>44439</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
       </c>
       <c r="AE13" s="2">
-        <v>12497</v>
+        <v>51792</v>
       </c>
       <c r="AF13" s="2">
-        <v>2825</v>
+        <v>39038</v>
       </c>
       <c r="AG13" s="2">
-        <v>7528</v>
+        <v>43817</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2">
-        <v>38034</v>
+        <v>85222</v>
       </c>
       <c r="AM13" s="2">
-        <v>2271</v>
+        <v>15854</v>
       </c>
       <c r="AN13" s="2">
-        <v>2139</v>
+        <v>18956</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2">
-        <v>3671</v>
+        <v>27354</v>
       </c>
       <c r="AT13" s="2">
-        <v>7153</v>
+        <v>26234</v>
       </c>
       <c r="AU13" s="2">
-        <v>6948</v>
+        <v>25673</v>
       </c>
       <c r="AV13" s="2">
-        <v>9776</v>
+        <v>51174</v>
       </c>
       <c r="AW13" s="2">
-        <v>11393</v>
+        <v>75352</v>
       </c>
       <c r="AX13" s="2">
-        <v>24051</v>
-      </c>
-      <c r="AY13" s="2">
-        <v>531653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+        <v>94515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B14" s="2">
-        <v>386</v>
+        <v>23676</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <v>184</v>
+        <v>11851</v>
       </c>
       <c r="F14" s="2">
-        <v>4</v>
+        <v>63255</v>
       </c>
       <c r="G14" s="2">
-        <v>143</v>
+        <v>40337</v>
       </c>
       <c r="H14" s="2">
-        <v>551</v>
+        <v>19130</v>
       </c>
       <c r="I14" s="2">
-        <v>1944</v>
+        <v>72141</v>
       </c>
       <c r="J14" s="2">
-        <v>302</v>
+        <v>74648</v>
       </c>
       <c r="K14" s="2">
-        <v>176</v>
+        <v>64789</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2">
-        <v>1814</v>
+        <v>48880</v>
       </c>
       <c r="O14" s="2">
-        <v>685</v>
+        <v>87897</v>
       </c>
       <c r="P14" s="2">
-        <v>2117</v>
+        <v>114647</v>
       </c>
       <c r="Q14" s="2">
-        <v>127</v>
+        <v>161933</v>
       </c>
       <c r="R14" s="2">
-        <v>563</v>
+        <v>46468</v>
       </c>
       <c r="S14" s="2">
-        <v>521</v>
+        <v>39688</v>
       </c>
       <c r="T14" s="2">
-        <v>286</v>
+        <v>38767</v>
       </c>
       <c r="U14" s="2">
-        <v>884</v>
+        <v>72759</v>
       </c>
       <c r="V14" s="2">
         <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>389</v>
+        <v>32765</v>
       </c>
       <c r="X14" s="2">
-        <v>298</v>
+        <v>31890</v>
       </c>
       <c r="Y14" s="2">
-        <v>1794</v>
+        <v>33884</v>
       </c>
       <c r="Z14" s="2">
-        <v>668</v>
+        <v>21918</v>
       </c>
       <c r="AA14" s="2">
-        <v>176</v>
+        <v>55386</v>
       </c>
       <c r="AB14" s="2">
-        <v>93</v>
+        <v>65121</v>
       </c>
       <c r="AC14" s="2">
-        <v>166</v>
+        <v>34857</v>
       </c>
       <c r="AD14" s="2">
-        <v>913</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="2">
-        <v>300</v>
+        <v>47146</v>
       </c>
       <c r="AF14" s="2">
-        <v>299</v>
+        <v>40744</v>
       </c>
       <c r="AG14" s="2">
-        <v>193</v>
+        <v>44029</v>
       </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2">
-        <v>509</v>
+        <v>88112</v>
       </c>
       <c r="AM14" s="2">
-        <v>354</v>
+        <v>15752</v>
       </c>
       <c r="AN14" s="2">
-        <v>0</v>
+        <v>16785</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2">
-        <v>507</v>
+        <v>17653</v>
       </c>
       <c r="AT14" s="2">
-        <v>4</v>
+        <v>26748</v>
       </c>
       <c r="AU14" s="2">
-        <v>545</v>
+        <v>25473</v>
       </c>
       <c r="AV14" s="2">
-        <v>445</v>
+        <v>48337</v>
       </c>
       <c r="AW14" s="2">
-        <v>187</v>
+        <v>46989</v>
       </c>
       <c r="AX14" s="2">
-        <v>508</v>
-      </c>
-      <c r="AY14" s="2">
-        <v>19035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+        <v>92540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B15" s="2">
-        <v>959</v>
+        <v>6210</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
-        <v>241</v>
+        <v>3324</v>
       </c>
       <c r="F15" s="2">
-        <v>146</v>
+        <v>29171</v>
       </c>
       <c r="G15" s="2">
-        <v>763</v>
+        <v>35752</v>
       </c>
       <c r="H15" s="2">
-        <v>680</v>
+        <v>3194</v>
       </c>
       <c r="I15" s="2">
-        <v>3166</v>
+        <v>9155</v>
       </c>
       <c r="J15" s="2">
-        <v>421</v>
+        <v>20194</v>
       </c>
       <c r="K15" s="2">
-        <v>241</v>
+        <v>24366</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2">
-        <v>2663</v>
+        <v>28827</v>
       </c>
       <c r="O15" s="2">
-        <v>1070</v>
+        <v>26737</v>
       </c>
       <c r="P15" s="2">
-        <v>3229</v>
+        <v>25514</v>
       </c>
       <c r="Q15" s="2">
-        <v>603</v>
+        <v>44236</v>
       </c>
       <c r="R15" s="2">
-        <v>644</v>
+        <v>8124</v>
       </c>
       <c r="S15" s="2">
-        <v>719</v>
+        <v>5275</v>
       </c>
       <c r="T15" s="2">
-        <v>229</v>
+        <v>5334</v>
       </c>
       <c r="U15" s="2">
-        <v>626</v>
+        <v>15133</v>
       </c>
       <c r="V15" s="2">
         <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>352</v>
+        <v>28950</v>
       </c>
       <c r="X15" s="2">
-        <v>1180</v>
+        <v>26203</v>
       </c>
       <c r="Y15" s="2">
-        <v>1780</v>
+        <v>7478</v>
       </c>
       <c r="Z15" s="2">
-        <v>1333</v>
+        <v>5052</v>
       </c>
       <c r="AA15" s="2">
-        <v>398</v>
+        <v>26895</v>
       </c>
       <c r="AB15" s="2">
-        <v>567</v>
+        <v>13057</v>
       </c>
       <c r="AC15" s="2">
-        <v>332</v>
+        <v>5186</v>
       </c>
       <c r="AD15" s="2">
-        <v>4992</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="2">
-        <v>514</v>
+        <v>12497</v>
       </c>
       <c r="AF15" s="2">
-        <v>206</v>
+        <v>2825</v>
       </c>
       <c r="AG15" s="2">
-        <v>312</v>
+        <v>7528</v>
       </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2">
-        <v>621</v>
+        <v>38034</v>
       </c>
       <c r="AM15" s="2">
-        <v>793</v>
+        <v>2271</v>
       </c>
       <c r="AN15" s="2">
-        <v>4</v>
+        <v>2139</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2">
-        <v>377</v>
+        <v>3671</v>
       </c>
       <c r="AT15" s="2">
-        <v>16</v>
+        <v>7153</v>
       </c>
       <c r="AU15" s="2">
-        <v>621</v>
+        <v>6948</v>
       </c>
       <c r="AV15" s="2">
-        <v>653</v>
+        <v>9776</v>
       </c>
       <c r="AW15" s="2">
-        <v>719</v>
+        <v>11393</v>
       </c>
       <c r="AX15" s="2">
-        <v>1525</v>
-      </c>
-      <c r="AY15" s="2">
-        <v>33695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+        <v>24051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B16" s="2">
-        <v>1632</v>
+        <v>386</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
-        <v>761</v>
+        <v>184</v>
       </c>
       <c r="F16" s="2">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2">
-        <v>1260</v>
+        <v>143</v>
       </c>
       <c r="H16" s="2">
-        <v>651</v>
+        <v>551</v>
       </c>
       <c r="I16" s="2">
-        <v>2926</v>
+        <v>1944</v>
       </c>
       <c r="J16" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="K16" s="2">
-        <v>422</v>
+        <v>176</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2">
-        <v>2662</v>
+        <v>1814</v>
       </c>
       <c r="O16" s="2">
-        <v>1956</v>
+        <v>685</v>
       </c>
       <c r="P16" s="2">
-        <v>1208</v>
+        <v>2117</v>
       </c>
       <c r="Q16" s="2">
-        <v>3255</v>
+        <v>127</v>
       </c>
       <c r="R16" s="2">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="S16" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="T16" s="2">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="U16" s="2">
-        <v>638</v>
+        <v>884</v>
       </c>
       <c r="V16" s="2">
-        <v>67042</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2">
-        <v>488</v>
+        <v>389</v>
       </c>
       <c r="X16" s="2">
-        <v>1408</v>
+        <v>298</v>
       </c>
       <c r="Y16" s="2">
-        <v>2206</v>
+        <v>1794</v>
       </c>
       <c r="Z16" s="2">
-        <v>1901</v>
+        <v>668</v>
       </c>
       <c r="AA16" s="2">
-        <v>351</v>
+        <v>176</v>
       </c>
       <c r="AB16" s="2">
-        <v>343</v>
+        <v>93</v>
       </c>
       <c r="AC16" s="2">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="AD16" s="2">
-        <v>3407</v>
+        <v>913</v>
       </c>
       <c r="AE16" s="2">
-        <v>652</v>
+        <v>300</v>
       </c>
       <c r="AF16" s="2">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="AG16" s="2">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2">
-        <v>715</v>
+        <v>509</v>
       </c>
       <c r="AM16" s="2">
-        <v>1357</v>
+        <v>354</v>
       </c>
       <c r="AN16" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="AT16" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AU16" s="2">
-        <v>263</v>
+        <v>545</v>
       </c>
       <c r="AV16" s="2">
-        <v>556</v>
+        <v>445</v>
       </c>
       <c r="AW16" s="2">
-        <v>985</v>
+        <v>187</v>
       </c>
       <c r="AX16" s="2">
-        <v>767</v>
-      </c>
-      <c r="AY16" s="2">
-        <v>102902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B17" s="2">
-        <v>1259</v>
+        <v>959</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>586</v>
-      </c>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>241</v>
+      </c>
       <c r="F17" s="2">
-        <v>419</v>
+        <v>146</v>
       </c>
       <c r="G17" s="2">
-        <v>1315</v>
+        <v>763</v>
       </c>
       <c r="H17" s="2">
-        <v>726</v>
+        <v>680</v>
       </c>
       <c r="I17" s="2">
-        <v>521</v>
+        <v>3166</v>
       </c>
       <c r="J17" s="2">
-        <v>309</v>
+        <v>421</v>
       </c>
       <c r="K17" s="2">
-        <v>420</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2">
+        <v>2663</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1070</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3229</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>603</v>
+      </c>
       <c r="R17" s="2">
-        <v>726</v>
+        <v>644</v>
       </c>
       <c r="S17" s="2">
-        <v>440</v>
+        <v>719</v>
       </c>
       <c r="T17" s="2">
-        <v>562</v>
+        <v>229</v>
       </c>
       <c r="U17" s="2">
-        <v>756</v>
+        <v>626</v>
       </c>
       <c r="V17" s="2">
         <v>0</v>
       </c>
       <c r="W17" s="2">
-        <v>599</v>
+        <v>352</v>
       </c>
       <c r="X17" s="2">
-        <v>1571</v>
+        <v>1180</v>
       </c>
       <c r="Y17" s="2">
-        <v>2157</v>
+        <v>1780</v>
       </c>
       <c r="Z17" s="2">
-        <v>2013</v>
+        <v>1333</v>
       </c>
       <c r="AA17" s="2">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="AB17" s="2">
-        <v>379</v>
+        <v>567</v>
       </c>
       <c r="AC17" s="2">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="AD17" s="2">
-        <v>1442</v>
+        <v>4992</v>
       </c>
       <c r="AE17" s="2">
-        <v>674</v>
+        <v>514</v>
       </c>
       <c r="AF17" s="2">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="AG17" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2">
-        <v>665</v>
+        <v>621</v>
       </c>
       <c r="AM17" s="2">
-        <v>1545</v>
+        <v>793</v>
       </c>
       <c r="AN17" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>2565</v>
-      </c>
-      <c r="AP17" s="2">
-        <v>1710</v>
-      </c>
-      <c r="AQ17" s="2">
-        <v>271</v>
-      </c>
-      <c r="AR17" s="2">
-        <v>3145</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
       <c r="AS17" s="2">
-        <v>563</v>
+        <v>377</v>
       </c>
       <c r="AT17" s="2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="AU17" s="2">
-        <v>253</v>
+        <v>621</v>
       </c>
       <c r="AV17" s="2">
-        <v>742</v>
+        <v>653</v>
       </c>
       <c r="AW17" s="2">
+        <v>719</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1632</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>761</v>
+      </c>
+      <c r="F18" s="2">
+        <v>47</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1260</v>
+      </c>
+      <c r="H18" s="2">
+        <v>651</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2926</v>
+      </c>
+      <c r="J18" s="2">
+        <v>334</v>
+      </c>
+      <c r="K18" s="2">
+        <v>422</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2">
+        <v>2662</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1956</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1208</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3255</v>
+      </c>
+      <c r="R18" s="2">
+        <v>614</v>
+      </c>
+      <c r="S18" s="2">
+        <v>540</v>
+      </c>
+      <c r="T18" s="2">
+        <v>151</v>
+      </c>
+      <c r="U18" s="2">
+        <v>638</v>
+      </c>
+      <c r="V18" s="2">
+        <v>67042</v>
+      </c>
+      <c r="W18" s="2">
+        <v>488</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1408</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>2206</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1901</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>351</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>343</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>346</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>3407</v>
+      </c>
+      <c r="AE18" s="2">
         <v>652</v>
       </c>
-      <c r="AX17" s="2">
-        <v>1071</v>
-      </c>
-      <c r="AY17" s="2">
-        <v>31466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>2025</v>
-      </c>
-      <c r="B18" s="2">
-        <v>439</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
-        <v>99</v>
-      </c>
-      <c r="G18" s="2">
-        <v>426</v>
-      </c>
-      <c r="H18" s="2">
-        <v>305</v>
-      </c>
-      <c r="I18" s="2">
-        <v>476</v>
-      </c>
-      <c r="J18" s="2">
-        <v>94</v>
-      </c>
-      <c r="K18" s="2">
-        <v>109</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2">
-        <v>159</v>
-      </c>
-      <c r="S18" s="2">
-        <v>85</v>
-      </c>
-      <c r="T18" s="2">
-        <v>514</v>
-      </c>
-      <c r="U18" s="2">
-        <v>252</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>151</v>
-      </c>
-      <c r="X18" s="2">
-        <v>382</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>837</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>535</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>166</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>183</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>168</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>58</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>301</v>
-      </c>
       <c r="AF18" s="2">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="2">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2">
+        <v>715</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>1357</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2">
+        <v>484</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>263</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>556</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>985</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1259</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>586</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>419</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1315</v>
+      </c>
+      <c r="H19" s="2">
+        <v>726</v>
+      </c>
+      <c r="I19" s="2">
+        <v>521</v>
+      </c>
+      <c r="J19" s="2">
+        <v>309</v>
+      </c>
+      <c r="K19" s="2">
+        <v>420</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2">
+        <v>726</v>
+      </c>
+      <c r="S19" s="2">
+        <v>440</v>
+      </c>
+      <c r="T19" s="2">
+        <v>562</v>
+      </c>
+      <c r="U19" s="2">
+        <v>756</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>599</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1571</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>2157</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>359</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>379</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>371</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>1442</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>674</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>299</v>
+      </c>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2">
+        <v>665</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>1545</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>2565</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>271</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>3145</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>563</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>39</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>253</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>742</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>652</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B20" s="2">
+        <v>439</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>99</v>
+      </c>
+      <c r="G20" s="2">
+        <v>426</v>
+      </c>
+      <c r="H20" s="2">
+        <v>305</v>
+      </c>
+      <c r="I20" s="2">
+        <v>476</v>
+      </c>
+      <c r="J20" s="2">
+        <v>94</v>
+      </c>
+      <c r="K20" s="2">
+        <v>109</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2">
+        <v>159</v>
+      </c>
+      <c r="S20" s="2">
+        <v>85</v>
+      </c>
+      <c r="T20" s="2">
+        <v>514</v>
+      </c>
+      <c r="U20" s="2">
+        <v>252</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>151</v>
+      </c>
+      <c r="X20" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>837</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>535</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>166</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>183</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>168</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>58</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>177</v>
+      </c>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2">
         <v>144</v>
       </c>
-      <c r="AM18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="2">
+      <c r="AM20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="2">
         <v>151</v>
       </c>
-      <c r="AO18" s="2">
+      <c r="AO20" s="2">
         <v>1092</v>
       </c>
-      <c r="AP18" s="2">
+      <c r="AP20" s="2">
         <v>558</v>
       </c>
-      <c r="AQ18" s="2">
+      <c r="AQ20" s="2">
         <v>196</v>
       </c>
-      <c r="AR18" s="2">
+      <c r="AR20" s="2">
         <v>691</v>
       </c>
-      <c r="AS18" s="2">
+      <c r="AS20" s="2">
         <v>204</v>
       </c>
-      <c r="AT18" s="2">
+      <c r="AT20" s="2">
         <v>3</v>
       </c>
-      <c r="AU18" s="2">
+      <c r="AU20" s="2">
         <v>86</v>
       </c>
-      <c r="AV18" s="2">
+      <c r="AV20" s="2">
         <v>145</v>
       </c>
-      <c r="AW18" s="2">
+      <c r="AW20" s="2">
         <v>87</v>
       </c>
-      <c r="AX18" s="2">
+      <c r="AX20" s="2">
         <v>207</v>
       </c>
-      <c r="AY18" s="2">
-        <v>9658</v>
-      </c>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21" s="2">
         <v>160650</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
         <v>118501</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E21" s="2">
         <v>104079</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F21" s="2">
         <v>261580</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G21" s="2">
         <v>445614</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H21" s="2">
         <v>132718</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I21" s="2">
         <v>423847</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J21" s="2">
         <v>473671</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K21" s="2">
         <v>256150</v>
       </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
         <v>292914</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O21" s="2">
         <v>291764</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P21" s="2">
         <v>342984</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q21" s="2">
         <v>470387</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R21" s="2">
         <v>299244</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S21" s="2">
         <v>328744</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T21" s="2">
         <v>226548</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U21" s="2">
         <v>456690</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V21" s="2">
         <v>67042</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W21" s="2">
         <v>254791</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X21" s="2">
         <v>217656</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y21" s="2">
         <v>191408</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z21" s="2">
         <v>114394</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA21" s="2">
         <v>354869</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AB21" s="2">
         <v>251242</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC21" s="2">
         <v>200422</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD21" s="2">
         <v>10812</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AE21" s="2">
         <v>324949</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AF21" s="2">
         <v>254610</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AG21" s="2">
         <v>257516</v>
       </c>
-      <c r="AH19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="2">
+      <c r="AH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2">
         <v>530392</v>
       </c>
-      <c r="AM19" s="2">
+      <c r="AM21" s="2">
         <v>94817</v>
       </c>
-      <c r="AN19" s="2">
+      <c r="AN21" s="2">
         <v>108348</v>
       </c>
-      <c r="AO19" s="2">
+      <c r="AO21" s="2">
         <v>362157</v>
       </c>
-      <c r="AP19" s="2">
+      <c r="AP21" s="2">
         <v>213276</v>
       </c>
-      <c r="AQ19" s="2">
+      <c r="AQ21" s="2">
         <v>317511</v>
       </c>
-      <c r="AR19" s="2">
+      <c r="AR21" s="2">
         <v>353483</v>
       </c>
-      <c r="AS19" s="2">
+      <c r="AS21" s="2">
         <v>278208</v>
       </c>
-      <c r="AT19" s="2">
+      <c r="AT21" s="2">
         <v>174476</v>
       </c>
-      <c r="AU19" s="2">
+      <c r="AU21" s="2">
         <v>161942</v>
       </c>
-      <c r="AV19" s="2">
+      <c r="AV21" s="2">
         <v>326187</v>
       </c>
-      <c r="AW19" s="2">
+      <c r="AW21" s="2">
         <v>426373</v>
       </c>
-      <c r="AX19" s="2">
+      <c r="AX21" s="2">
         <v>579485</v>
       </c>
-      <c r="AY19" s="2">
-        <v>11512451</v>
-      </c>
+    </row>
+    <row r="25" spans="1:50" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="B25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B25:F25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -52045,10 +51705,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB971FC3-37E4-4473-BE72-831CFD6103DC}">
-  <dimension ref="A4:I54"/>
+  <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52064,117 +51724,66 @@
     <col min="9" max="9" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="2" spans="1:9" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>67</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I6" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>188067</v>
-      </c>
-      <c r="C5" s="2">
-        <v>160650</v>
-      </c>
-      <c r="D5" s="2">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2">
-        <v>765</v>
-      </c>
-      <c r="F5" s="2">
-        <v>16472</v>
-      </c>
-      <c r="G5" s="2">
-        <v>55866</v>
-      </c>
-      <c r="H5" s="2">
-        <v>42186</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2893725</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>14790</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>226843</v>
+        <v>188067</v>
       </c>
       <c r="C7" s="2">
-        <v>118501</v>
+        <v>160650</v>
       </c>
       <c r="D7" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2">
-        <v>214</v>
+        <v>765</v>
       </c>
       <c r="F7" s="2">
-        <v>6061</v>
+        <v>16472</v>
       </c>
       <c r="G7" s="2">
-        <v>6447</v>
+        <v>55866</v>
       </c>
       <c r="H7" s="2">
-        <v>30241</v>
+        <v>42186</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -52182,28 +51791,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
-        <v>222122</v>
+        <v>2893725</v>
       </c>
       <c r="C8" s="2">
-        <v>104079</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>13409</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>10260</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>29350</v>
+        <v>14790</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -52211,28 +51820,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>123598</v>
+        <v>226843</v>
       </c>
       <c r="C9" s="2">
-        <v>261580</v>
+        <v>118501</v>
       </c>
       <c r="D9" s="2">
-        <v>597</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="F9" s="2">
-        <v>11986</v>
+        <v>6061</v>
       </c>
       <c r="G9" s="2">
-        <v>38945</v>
+        <v>6447</v>
       </c>
       <c r="H9" s="2">
-        <v>17554</v>
+        <v>30241</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -52240,28 +51849,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2">
-        <v>525833</v>
+        <v>222122</v>
       </c>
       <c r="C10" s="2">
-        <v>445614</v>
+        <v>104079</v>
       </c>
       <c r="D10" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="F10" s="2">
-        <v>56036</v>
+        <v>13409</v>
       </c>
       <c r="G10" s="2">
-        <v>41821</v>
+        <v>10260</v>
       </c>
       <c r="H10" s="2">
-        <v>77332</v>
+        <v>29350</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -52269,28 +51878,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2">
-        <v>409349</v>
+        <v>123598</v>
       </c>
       <c r="C11" s="2">
-        <v>132718</v>
+        <v>261580</v>
       </c>
       <c r="D11" s="2">
-        <v>40</v>
+        <v>597</v>
       </c>
       <c r="E11" s="2">
-        <v>645</v>
+        <v>265</v>
       </c>
       <c r="F11" s="2">
-        <v>19923</v>
+        <v>11986</v>
       </c>
       <c r="G11" s="2">
-        <v>83006</v>
+        <v>38945</v>
       </c>
       <c r="H11" s="2">
-        <v>59971</v>
+        <v>17554</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -52298,28 +51907,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>476137</v>
+        <v>525833</v>
       </c>
       <c r="C12" s="2">
-        <v>423847</v>
+        <v>445614</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2">
-        <v>1348</v>
+        <v>419</v>
       </c>
       <c r="F12" s="2">
-        <v>82499</v>
+        <v>56036</v>
       </c>
       <c r="G12" s="2">
-        <v>28015</v>
+        <v>41821</v>
       </c>
       <c r="H12" s="2">
-        <v>50118</v>
+        <v>77332</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -52327,28 +51936,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>475146</v>
+        <v>409349</v>
       </c>
       <c r="C13" s="2">
-        <v>473671</v>
+        <v>132718</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2">
-        <v>190</v>
+        <v>645</v>
       </c>
       <c r="F13" s="2">
-        <v>211108</v>
+        <v>19923</v>
       </c>
       <c r="G13" s="2">
-        <v>113076</v>
+        <v>83006</v>
       </c>
       <c r="H13" s="2">
-        <v>56127</v>
+        <v>59971</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -52356,28 +51965,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>476303</v>
+        <v>476137</v>
       </c>
       <c r="C14" s="2">
-        <v>256150</v>
+        <v>423847</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>555</v>
+        <v>1348</v>
       </c>
       <c r="F14" s="2">
-        <v>56183</v>
+        <v>82499</v>
       </c>
       <c r="G14" s="2">
-        <v>40781</v>
+        <v>28015</v>
       </c>
       <c r="H14" s="2">
-        <v>74290</v>
+        <v>50118</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -52385,144 +51994,144 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>475146</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>473671</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F15" s="2">
-        <v>19362</v>
+        <v>211108</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>113076</v>
       </c>
       <c r="H15" s="2">
-        <v>19648</v>
+        <v>56127</v>
       </c>
       <c r="I15" s="2">
-        <v>291248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>476303</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>256150</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="F16" s="2">
-        <v>16857</v>
+        <v>56183</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>40781</v>
       </c>
       <c r="H16" s="2">
-        <v>29434</v>
+        <v>74290</v>
       </c>
       <c r="I16" s="2">
-        <v>190557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
-        <v>430413</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>292914</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>24824</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>22624</v>
+        <v>19362</v>
       </c>
       <c r="G17" s="2">
-        <v>62062</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>25768</v>
+        <v>19648</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>291248</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>99092</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>291764</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>2223</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>37286</v>
+        <v>16857</v>
       </c>
       <c r="G18" s="2">
-        <v>150232</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>43713</v>
+        <v>29434</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>190557</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
-        <v>455738</v>
+        <v>430413</v>
       </c>
       <c r="C19" s="2">
-        <v>342984</v>
+        <v>292914</v>
       </c>
       <c r="D19" s="2">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2">
-        <v>11945</v>
+        <v>24824</v>
       </c>
       <c r="F19" s="2">
-        <v>53308</v>
+        <v>22624</v>
       </c>
       <c r="G19" s="2">
-        <v>50606</v>
+        <v>62062</v>
       </c>
       <c r="H19" s="2">
-        <v>78633</v>
+        <v>25768</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -52530,28 +52139,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2">
-        <v>284063</v>
+        <v>99092</v>
       </c>
       <c r="C20" s="2">
-        <v>470387</v>
+        <v>291764</v>
       </c>
       <c r="D20" s="2">
-        <v>1275</v>
+        <v>228</v>
       </c>
       <c r="E20" s="2">
-        <v>50879</v>
+        <v>2223</v>
       </c>
       <c r="F20" s="2">
-        <v>22070</v>
+        <v>37286</v>
       </c>
       <c r="G20" s="2">
-        <v>43526</v>
+        <v>150232</v>
       </c>
       <c r="H20" s="2">
-        <v>46181</v>
+        <v>43713</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -52559,28 +52168,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2">
-        <v>587341</v>
+        <v>455738</v>
       </c>
       <c r="C21" s="2">
-        <v>299244</v>
+        <v>342984</v>
       </c>
       <c r="D21" s="2">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2">
-        <v>356</v>
+        <v>11945</v>
       </c>
       <c r="F21" s="2">
-        <v>87634</v>
+        <v>53308</v>
       </c>
       <c r="G21" s="2">
-        <v>87077</v>
+        <v>50606</v>
       </c>
       <c r="H21" s="2">
-        <v>56572</v>
+        <v>78633</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -52588,28 +52197,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2">
-        <v>368673</v>
+        <v>284063</v>
       </c>
       <c r="C22" s="2">
-        <v>328744</v>
+        <v>470387</v>
       </c>
       <c r="D22" s="2">
-        <v>1063</v>
+        <v>1275</v>
       </c>
       <c r="E22" s="2">
-        <v>823</v>
+        <v>50879</v>
       </c>
       <c r="F22" s="2">
-        <v>30220</v>
+        <v>22070</v>
       </c>
       <c r="G22" s="2">
-        <v>19856</v>
+        <v>43526</v>
       </c>
       <c r="H22" s="2">
-        <v>83805</v>
+        <v>46181</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -52617,28 +52226,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>587341</v>
+      </c>
+      <c r="C23" s="2">
+        <v>299244</v>
+      </c>
+      <c r="D23" s="2">
         <v>9</v>
       </c>
-      <c r="B23" s="2">
-        <v>269849</v>
-      </c>
-      <c r="C23" s="2">
-        <v>226548</v>
-      </c>
-      <c r="D23" s="2">
-        <v>106</v>
-      </c>
       <c r="E23" s="2">
-        <v>546</v>
+        <v>356</v>
       </c>
       <c r="F23" s="2">
-        <v>11524</v>
+        <v>87634</v>
       </c>
       <c r="G23" s="2">
-        <v>18550</v>
+        <v>87077</v>
       </c>
       <c r="H23" s="2">
-        <v>13880</v>
+        <v>56572</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -52646,28 +52255,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
-        <v>840418</v>
+        <v>368673</v>
       </c>
       <c r="C24" s="2">
-        <v>456690</v>
+        <v>328744</v>
       </c>
       <c r="D24" s="2">
-        <v>239</v>
+        <v>1063</v>
       </c>
       <c r="E24" s="2">
-        <v>1038</v>
+        <v>823</v>
       </c>
       <c r="F24" s="2">
-        <v>22652</v>
+        <v>30220</v>
       </c>
       <c r="G24" s="2">
-        <v>19799</v>
+        <v>19856</v>
       </c>
       <c r="H24" s="2">
-        <v>55410</v>
+        <v>83805</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -52675,57 +52284,57 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>0</v>
+        <v>269849</v>
       </c>
       <c r="C25" s="2">
-        <v>67042</v>
+        <v>226548</v>
       </c>
       <c r="D25" s="2">
-        <v>654529</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2">
-        <v>73308</v>
+        <v>546</v>
       </c>
       <c r="F25" s="2">
-        <v>5601</v>
+        <v>11524</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>18550</v>
       </c>
       <c r="H25" s="2">
-        <v>19915</v>
+        <v>13880</v>
       </c>
       <c r="I25" s="2">
-        <v>173189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2">
-        <v>555827</v>
+        <v>840418</v>
       </c>
       <c r="C26" s="2">
-        <v>254791</v>
+        <v>456690</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="E26" s="2">
-        <v>5847</v>
+        <v>1038</v>
       </c>
       <c r="F26" s="2">
-        <v>104338</v>
+        <v>22652</v>
       </c>
       <c r="G26" s="2">
-        <v>24519</v>
+        <v>19799</v>
       </c>
       <c r="H26" s="2">
-        <v>51486</v>
+        <v>55410</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -52733,57 +52342,57 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>1453164</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>217656</v>
+        <v>67042</v>
       </c>
       <c r="D27" s="2">
-        <v>923</v>
+        <v>654529</v>
       </c>
       <c r="E27" s="2">
-        <v>34419</v>
+        <v>73308</v>
       </c>
       <c r="F27" s="2">
-        <v>46941</v>
+        <v>5601</v>
       </c>
       <c r="G27" s="2">
-        <v>29785</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>70312</v>
+        <v>19915</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>173189</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2">
-        <v>526211</v>
+        <v>555827</v>
       </c>
       <c r="C28" s="2">
-        <v>191408</v>
+        <v>254791</v>
       </c>
       <c r="D28" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>856</v>
+        <v>5847</v>
       </c>
       <c r="F28" s="2">
-        <v>95112</v>
+        <v>104338</v>
       </c>
       <c r="G28" s="2">
-        <v>29798</v>
+        <v>24519</v>
       </c>
       <c r="H28" s="2">
-        <v>148115</v>
+        <v>51486</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -52791,28 +52400,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
-        <v>737263</v>
+        <v>1453164</v>
       </c>
       <c r="C29" s="2">
-        <v>114394</v>
+        <v>217656</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="E29" s="2">
-        <v>700</v>
+        <v>34419</v>
       </c>
       <c r="F29" s="2">
-        <v>16284</v>
+        <v>46941</v>
       </c>
       <c r="G29" s="2">
-        <v>38556</v>
+        <v>29785</v>
       </c>
       <c r="H29" s="2">
-        <v>53145</v>
+        <v>70312</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -52820,28 +52429,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2">
-        <v>497060</v>
+        <v>526211</v>
       </c>
       <c r="C30" s="2">
-        <v>354869</v>
+        <v>191408</v>
       </c>
       <c r="D30" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2">
-        <v>1567</v>
+        <v>856</v>
       </c>
       <c r="F30" s="2">
-        <v>35326</v>
+        <v>95112</v>
       </c>
       <c r="G30" s="2">
-        <v>25867</v>
+        <v>29798</v>
       </c>
       <c r="H30" s="2">
-        <v>29176</v>
+        <v>148115</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -52849,28 +52458,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2">
-        <v>753829</v>
+        <v>737263</v>
       </c>
       <c r="C31" s="2">
-        <v>251242</v>
+        <v>114394</v>
       </c>
       <c r="D31" s="2">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>17447</v>
+        <v>700</v>
       </c>
       <c r="F31" s="2">
-        <v>47584</v>
+        <v>16284</v>
       </c>
       <c r="G31" s="2">
-        <v>19204</v>
+        <v>38556</v>
       </c>
       <c r="H31" s="2">
-        <v>61759</v>
+        <v>53145</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -52878,28 +52487,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2">
-        <v>1900477</v>
+        <v>497060</v>
       </c>
       <c r="C32" s="2">
-        <v>200422</v>
+        <v>354869</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="E32" s="2">
-        <v>574</v>
+        <v>1567</v>
       </c>
       <c r="F32" s="2">
-        <v>243058</v>
+        <v>35326</v>
       </c>
       <c r="G32" s="2">
-        <v>49332</v>
+        <v>25867</v>
       </c>
       <c r="H32" s="2">
-        <v>430745</v>
+        <v>29176</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -52907,28 +52516,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
-        <v>12325914</v>
+        <v>753829</v>
       </c>
       <c r="C33" s="2">
-        <v>10812</v>
+        <v>251242</v>
       </c>
       <c r="D33" s="2">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="E33" s="2">
-        <v>159</v>
+        <v>17447</v>
       </c>
       <c r="F33" s="2">
-        <v>15</v>
+        <v>47584</v>
       </c>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>19204</v>
       </c>
       <c r="H33" s="2">
-        <v>469981</v>
+        <v>61759</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -52936,28 +52545,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2">
-        <v>461296</v>
+        <v>1900477</v>
       </c>
       <c r="C34" s="2">
-        <v>324949</v>
+        <v>200422</v>
       </c>
       <c r="D34" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>2705</v>
+        <v>574</v>
       </c>
       <c r="F34" s="2">
-        <v>48664</v>
+        <v>243058</v>
       </c>
       <c r="G34" s="2">
-        <v>14913</v>
+        <v>49332</v>
       </c>
       <c r="H34" s="2">
-        <v>84807</v>
+        <v>430745</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -52965,28 +52574,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2">
-        <v>299417</v>
+        <v>12325914</v>
       </c>
       <c r="C35" s="2">
-        <v>254610</v>
+        <v>10812</v>
       </c>
       <c r="D35" s="2">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="F35" s="2">
-        <v>65393</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2">
-        <v>35421</v>
+        <v>2</v>
       </c>
       <c r="H35" s="2">
-        <v>66443</v>
+        <v>469981</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -52994,28 +52603,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2">
-        <v>174013</v>
+        <v>461296</v>
       </c>
       <c r="C36" s="2">
-        <v>257516</v>
+        <v>324949</v>
       </c>
       <c r="D36" s="2">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2">
-        <v>513</v>
+        <v>2705</v>
       </c>
       <c r="F36" s="2">
-        <v>41326</v>
+        <v>48664</v>
       </c>
       <c r="G36" s="2">
-        <v>17524</v>
+        <v>14913</v>
       </c>
       <c r="H36" s="2">
-        <v>23475</v>
+        <v>84807</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -53023,28 +52632,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2">
-        <v>84266</v>
+        <v>299417</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
+        <v>254610</v>
       </c>
       <c r="D37" s="2">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="F37" s="2">
-        <v>2728</v>
+        <v>65393</v>
       </c>
       <c r="G37" s="2">
-        <v>13838</v>
+        <v>35421</v>
       </c>
       <c r="H37" s="2">
-        <v>9480</v>
+        <v>66443</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -53052,28 +52661,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2">
-        <v>21249</v>
+        <v>174013</v>
       </c>
       <c r="C38" s="2">
-        <v>0</v>
+        <v>257516</v>
       </c>
       <c r="D38" s="2">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="F38" s="2">
-        <v>9727</v>
+        <v>41326</v>
       </c>
       <c r="G38" s="2">
-        <v>16455</v>
+        <v>17524</v>
       </c>
       <c r="H38" s="2">
-        <v>7818</v>
+        <v>23475</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -53081,10 +52690,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B39" s="2">
-        <v>103051</v>
+        <v>84266</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -53096,13 +52705,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>3707</v>
+        <v>2728</v>
       </c>
       <c r="G39" s="2">
-        <v>11732</v>
+        <v>13838</v>
       </c>
       <c r="H39" s="2">
-        <v>21376</v>
+        <v>9480</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -53110,10 +52719,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" s="2">
-        <v>145297</v>
+        <v>21249</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -53125,13 +52734,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>6100</v>
+        <v>9727</v>
       </c>
       <c r="G40" s="2">
-        <v>11952</v>
+        <v>16455</v>
       </c>
       <c r="H40" s="2">
-        <v>9453</v>
+        <v>7818</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -53139,28 +52748,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2">
-        <v>1366568</v>
+        <v>103051</v>
       </c>
       <c r="C41" s="2">
-        <v>530392</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>1991</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2">
-        <v>80680</v>
+        <v>3707</v>
       </c>
       <c r="G41" s="2">
-        <v>84089</v>
+        <v>11732</v>
       </c>
       <c r="H41" s="2">
-        <v>77543</v>
+        <v>21376</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -53168,28 +52777,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B42" s="2">
-        <v>379981</v>
+        <v>145297</v>
       </c>
       <c r="C42" s="2">
-        <v>94817</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>60655</v>
+        <v>6100</v>
       </c>
       <c r="G42" s="2">
-        <v>13098</v>
+        <v>11952</v>
       </c>
       <c r="H42" s="2">
-        <v>55492</v>
+        <v>9453</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -53197,28 +52806,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2">
-        <v>547538</v>
+        <v>1366568</v>
       </c>
       <c r="C43" s="2">
-        <v>108348</v>
+        <v>530392</v>
       </c>
       <c r="D43" s="2">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E43" s="2">
-        <v>187</v>
+        <v>1991</v>
       </c>
       <c r="F43" s="2">
-        <v>10809</v>
+        <v>80680</v>
       </c>
       <c r="G43" s="2">
-        <v>44911</v>
+        <v>84089</v>
       </c>
       <c r="H43" s="2">
-        <v>37569</v>
+        <v>77543</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
@@ -53226,28 +52835,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>307205</v>
+        <v>379981</v>
       </c>
       <c r="C44" s="2">
-        <v>362157</v>
+        <v>94817</v>
       </c>
       <c r="D44" s="2">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="E44" s="2">
-        <v>20850</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>9493</v>
+        <v>60655</v>
       </c>
       <c r="G44" s="2">
-        <v>66969</v>
+        <v>13098</v>
       </c>
       <c r="H44" s="2">
-        <v>25402</v>
+        <v>55492</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -53255,28 +52864,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B45" s="2">
-        <v>276179</v>
+        <v>547538</v>
       </c>
       <c r="C45" s="2">
-        <v>213276</v>
+        <v>108348</v>
       </c>
       <c r="D45" s="2">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="E45" s="2">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="F45" s="2">
-        <v>30896</v>
+        <v>10809</v>
       </c>
       <c r="G45" s="2">
-        <v>80679</v>
+        <v>44911</v>
       </c>
       <c r="H45" s="2">
-        <v>29563</v>
+        <v>37569</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
@@ -53284,28 +52893,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2">
-        <v>385230</v>
+        <v>307205</v>
       </c>
       <c r="C46" s="2">
-        <v>317511</v>
+        <v>362157</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>10569</v>
+        <v>20850</v>
       </c>
       <c r="F46" s="2">
-        <v>14736</v>
+        <v>9493</v>
       </c>
       <c r="G46" s="2">
-        <v>56251</v>
+        <v>66969</v>
       </c>
       <c r="H46" s="2">
-        <v>103826</v>
+        <v>25402</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
@@ -53313,28 +52922,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2">
-        <v>354531</v>
+        <v>276179</v>
       </c>
       <c r="C47" s="2">
-        <v>353483</v>
+        <v>213276</v>
       </c>
       <c r="D47" s="2">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="E47" s="2">
-        <v>45351</v>
+        <v>112</v>
       </c>
       <c r="F47" s="2">
-        <v>52648</v>
+        <v>30896</v>
       </c>
       <c r="G47" s="2">
-        <v>48193</v>
+        <v>80679</v>
       </c>
       <c r="H47" s="2">
-        <v>53923</v>
+        <v>29563</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -53342,28 +52951,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2">
-        <v>534195</v>
+        <v>385230</v>
       </c>
       <c r="C48" s="2">
-        <v>278208</v>
+        <v>317511</v>
       </c>
       <c r="D48" s="2">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>867</v>
+        <v>10569</v>
       </c>
       <c r="F48" s="2">
-        <v>38041</v>
+        <v>14736</v>
       </c>
       <c r="G48" s="2">
-        <v>68307</v>
+        <v>56251</v>
       </c>
       <c r="H48" s="2">
-        <v>89784</v>
+        <v>103826</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -53371,28 +52980,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
-        <v>157331</v>
+        <v>354531</v>
       </c>
       <c r="C49" s="2">
-        <v>174476</v>
+        <v>353483</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>74</v>
+        <v>45351</v>
       </c>
       <c r="F49" s="2">
-        <v>10824</v>
+        <v>52648</v>
       </c>
       <c r="G49" s="2">
-        <v>13447</v>
+        <v>48193</v>
       </c>
       <c r="H49" s="2">
-        <v>11449</v>
+        <v>53923</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -53400,28 +53009,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" s="2">
-        <v>682082</v>
+        <v>534195</v>
       </c>
       <c r="C50" s="2">
-        <v>161942</v>
+        <v>278208</v>
       </c>
       <c r="D50" s="2">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="E50" s="2">
-        <v>1308</v>
+        <v>867</v>
       </c>
       <c r="F50" s="2">
-        <v>46878</v>
+        <v>38041</v>
       </c>
       <c r="G50" s="2">
-        <v>23332</v>
+        <v>68307</v>
       </c>
       <c r="H50" s="2">
-        <v>89329</v>
+        <v>89784</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -53429,28 +53038,28 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B51" s="2">
-        <v>405397</v>
+        <v>157331</v>
       </c>
       <c r="C51" s="2">
-        <v>326187</v>
+        <v>174476</v>
       </c>
       <c r="D51" s="2">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2">
-        <v>1020</v>
+        <v>74</v>
       </c>
       <c r="F51" s="2">
-        <v>30341</v>
+        <v>10824</v>
       </c>
       <c r="G51" s="2">
-        <v>34089</v>
+        <v>13447</v>
       </c>
       <c r="H51" s="2">
-        <v>9282</v>
+        <v>11449</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
@@ -53458,28 +53067,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2">
-        <v>760687</v>
+        <v>682082</v>
       </c>
       <c r="C52" s="2">
-        <v>426373</v>
+        <v>161942</v>
       </c>
       <c r="D52" s="2">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2">
-        <v>1373</v>
+        <v>1308</v>
       </c>
       <c r="F52" s="2">
-        <v>107672</v>
+        <v>46878</v>
       </c>
       <c r="G52" s="2">
-        <v>120068</v>
+        <v>23332</v>
       </c>
       <c r="H52" s="2">
-        <v>127810</v>
+        <v>89329</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
@@ -53487,28 +53096,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="2">
-        <v>827474</v>
+        <v>405397</v>
       </c>
       <c r="C53" s="2">
-        <v>579485</v>
+        <v>326187</v>
       </c>
       <c r="D53" s="2">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="E53" s="2">
-        <v>2989</v>
+        <v>1020</v>
       </c>
       <c r="F53" s="2">
-        <v>112926</v>
+        <v>30341</v>
       </c>
       <c r="G53" s="2">
-        <v>100057</v>
+        <v>34089</v>
       </c>
       <c r="H53" s="2">
-        <v>77426</v>
+        <v>9282</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
@@ -53516,34 +53125,103 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2">
+        <v>760687</v>
+      </c>
+      <c r="C54" s="2">
+        <v>426373</v>
+      </c>
+      <c r="D54" s="2">
+        <v>172</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1373</v>
+      </c>
+      <c r="F54" s="2">
+        <v>107672</v>
+      </c>
+      <c r="G54" s="2">
+        <v>120068</v>
+      </c>
+      <c r="H54" s="2">
+        <v>127810</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2">
+        <v>827474</v>
+      </c>
+      <c r="C55" s="2">
+        <v>579485</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2989</v>
+      </c>
+      <c r="F55" s="2">
+        <v>112926</v>
+      </c>
+      <c r="G55" s="2">
+        <v>100057</v>
+      </c>
+      <c r="H55" s="2">
+        <v>77426</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B56" s="2">
         <v>36375442</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C56" s="2">
         <v>11512451</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D56" s="2">
         <v>661401</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E56" s="2">
         <v>322484</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F56" s="2">
         <v>2175717</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G56" s="2">
         <v>1962313</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H56" s="2">
         <v>3250887</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I56" s="2">
         <v>654994</v>
       </c>
     </row>
+    <row r="60" spans="1:9" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="B60" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B60:D60"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -53551,10 +53229,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803E057B-2FFD-452E-9801-D0EF6EE0D059}">
-  <dimension ref="A7:I18"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54002,103 +53680,131 @@
     <col min="876" max="876" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="2" spans="1:10" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <v>1151362</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="2">
         <v>1329318</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B12" s="2">
         <v>1396246</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B13" s="2">
         <v>1544155</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B14" s="2">
         <v>1700361</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B15" s="2">
         <v>1853200</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B16" s="2">
         <v>2141268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2824608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2908515</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>12806883</v>
+        <v>2824608</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2908515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2">
+        <v>12806883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B20" s="2">
         <v>29655916</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F6:J7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
